--- a/masks/code/antenna_coupled_TKIDs.xlsx
+++ b/masks/code/antenna_coupled_TKIDs.xlsx
@@ -1214,10 +1214,10 @@
       </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>-0.475</v>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>0.44</v>
@@ -1365,13 +1365,13 @@
         <v>-0.7220000000000001</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>-1.353</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>4.191</v>
+        <v>3.386</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y20" s="1" t="n">
         <v>17</v>
@@ -1657,13 +1657,13 @@
         <v>0.722</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O21" s="1" t="n">
         <v>-2.047</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>4.191</v>
+        <v>3.386</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1800,16 +1800,16 @@
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>-0</v>
+        <v>0.801</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>-4.575</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>2.525</v>
+        <v>1.724</v>
       </c>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -1877,13 +1877,13 @@
         <v>0.889</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>-3.918</v>
+        <v>-3.113</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>-6.414000000000001</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>4.193</v>
+        <v>3.387999999999999</v>
       </c>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -1951,13 +1951,13 @@
         <v>-0.5730000000000001</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>-3.918</v>
+        <v>-3.113</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>-4.952</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>4.193</v>
+        <v>3.387999999999999</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -2310,16 +2310,16 @@
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>-0</v>
+        <v>0.801</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>-1.275</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>-0.825</v>
+        <v>-1.626</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>-1.175</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>-2.475</v>
+        <v>-3.276</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
@@ -2461,13 +2461,13 @@
         <v>-0.006</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>-3.369</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>6.925</v>
+        <v>6.124</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
@@ -2532,10 +2532,10 @@
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>-5.525</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y33" s="1" t="n">
         <v>17</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-9.465</v>
+        <v>-9.515000000000001</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>9.9</v>
@@ -2599,23 +2599,23 @@
         <v>4.95</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>-8.815</v>
+        <v>-8.865</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>-10.115</v>
+        <v>-10.165</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>-9.465</v>
+        <v>-9.515000000000001</v>
       </c>
       <c r="Q34" s="1" t="n"/>
       <c r="R34" s="1" t="n"/>
@@ -2680,16 +2680,16 @@
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>-0</v>
+        <v>0.801</v>
       </c>
       <c r="O35" s="1" t="n">
         <v>-1.525</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>2.775</v>
+        <v>1.974</v>
       </c>
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y36" s="1" t="n">
         <v>11</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y37" s="1" t="n">
         <v>11</v>
@@ -3193,13 +3193,13 @@
         <v>0.731</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O42" s="1" t="n">
         <v>-6.406</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>3.691</v>
+        <v>2.886</v>
       </c>
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
@@ -3267,13 +3267,13 @@
         <v>-0.7310000000000001</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O43" s="1" t="n">
         <v>-4.944</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>3.691</v>
+        <v>2.886</v>
       </c>
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
@@ -3460,7 +3460,7 @@
         <v>3.925</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-8.115</v>
+        <v>-8.164999999999999</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>8.5</v>
@@ -3475,23 +3475,23 @@
         <v>8.175000000000001</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>-7.915</v>
+        <v>-7.964999999999999</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>-8.315</v>
+        <v>-8.364999999999998</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="O46" s="1" t="n">
         <v>3.925</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>-8.115</v>
+        <v>-8.125</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3534,7 +3534,7 @@
         <v>3.925</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-8.115</v>
+        <v>-8.164999999999999</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>8.5</v>
@@ -3549,10 +3549,10 @@
         <v>8.175000000000001</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>-7.915</v>
+        <v>-7.964999999999999</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>-8.315</v>
+        <v>-8.364999999999998</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
@@ -3565,7 +3565,7 @@
         <v>7.975</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>-23.335</v>
+        <v>-23.385</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -3606,7 +3606,7 @@
         <v>3.925</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-8.115</v>
+        <v>-8.164999999999999</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>8.5</v>
@@ -3621,10 +3621,10 @@
         <v>8.175000000000001</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>-7.915</v>
+        <v>-7.964999999999999</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>-8.315</v>
+        <v>-8.364999999999998</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
@@ -3637,7 +3637,7 @@
         <v>-0.125</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>7.185</v>
+        <v>7.135000000000002</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
@@ -3963,10 +3963,10 @@
         <v>53</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-4.574</v>
+        <v>-4.625</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.174</v>
+        <v>0.225</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>0.4</v>
@@ -3975,29 +3975,29 @@
         <v>0.8</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-4.774</v>
+        <v>-4.825</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>-4.374</v>
+        <v>-4.425</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>0.5740000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>-0.226</v>
+        <v>-0.175</v>
       </c>
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>-4.574</v>
+        <v>-4.625</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>0.174</v>
+        <v>0.265</v>
       </c>
       <c r="Q53" s="1" t="n"/>
       <c r="R53" s="1" t="n"/>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y53" s="1" t="n">
         <v>17</v>
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>0</v>
+        <v>0.805</v>
       </c>
       <c r="O54" s="1" t="n">
         <v>4.125</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>-3.925</v>
+        <v>-4.73</v>
       </c>
       <c r="Q54" s="1" t="n"/>
       <c r="R54" s="1" t="n"/>
@@ -5554,7 +5554,7 @@
         <v>-0.925</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>-5.905</v>
+        <v>-5.955</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>1.634</v>
@@ -5569,23 +5569,23 @@
         <v>-0.1080000000000001</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>-5.595000000000001</v>
+        <v>-5.645</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-6.215</v>
+        <v>-6.265</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
         <v>-0.881</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O75" s="1" t="n">
         <v>-0.04400000000000004</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-1.989</v>
+        <v>-2.844</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -5628,7 +5628,7 @@
         <v>-0.925</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>-5.905</v>
+        <v>-5.955</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>1.634</v>
@@ -5643,10 +5643,10 @@
         <v>-0.1080000000000001</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>-5.595000000000001</v>
+        <v>-5.645</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-6.215</v>
+        <v>-6.265</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
@@ -5659,7 +5659,7 @@
         <v>3.888</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-17.614</v>
+        <v>-17.664</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -5700,7 +5700,7 @@
         <v>-0.925</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>-5.235</v>
+        <v>-5.285</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>1.634</v>
@@ -5715,23 +5715,23 @@
         <v>-0.1080000000000001</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>-4.925000000000001</v>
+        <v>-4.975000000000001</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-5.545</v>
+        <v>-5.595</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
         <v>0.881</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O77" s="1" t="n">
         <v>-1.806</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.174</v>
       </c>
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
@@ -5774,7 +5774,7 @@
         <v>-0.925</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>-5.235</v>
+        <v>-5.285</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>1.634</v>
@@ -5789,10 +5789,10 @@
         <v>-0.1080000000000001</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>-4.925000000000001</v>
+        <v>-4.975000000000001</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-5.545</v>
+        <v>-5.595</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
@@ -5805,7 +5805,7 @@
         <v>-5.738</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-16.944</v>
+        <v>-16.994</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -5868,16 +5868,16 @@
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>-0</v>
+        <v>0.801</v>
       </c>
       <c r="O79" s="1" t="n">
         <v>-1.475</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>4.725</v>
+        <v>3.923999999999999</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
@@ -5945,13 +5945,13 @@
         <v>-3.409</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>-3.838</v>
+        <v>-3.033</v>
       </c>
       <c r="O80" s="1" t="n">
         <v>-1.516</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>5.038</v>
+        <v>4.233</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
@@ -6019,13 +6019,13 @@
         <v>3.409</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>-3.838</v>
+        <v>-3.033</v>
       </c>
       <c r="O81" s="1" t="n">
         <v>-8.334</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>5.038</v>
+        <v>4.233</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
@@ -6068,7 +6068,7 @@
         <v>-1.192</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>-8.455</v>
+        <v>-8.505000000000001</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>1.634</v>
@@ -6083,23 +6083,23 @@
         <v>-0.375</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>-8.145</v>
+        <v>-8.195</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
         <v>-0.881</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O82" s="1" t="n">
         <v>-0.3109999999999999</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>-4.539</v>
+        <v>-5.394000000000001</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
@@ -6142,7 +6142,7 @@
         <v>-1.192</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>-8.455</v>
+        <v>-8.505000000000001</v>
       </c>
       <c r="F83" s="1" t="n">
         <v>1.634</v>
@@ -6157,10 +6157,10 @@
         <v>-0.375</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>-8.145</v>
+        <v>-8.195</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
@@ -6173,7 +6173,7 @@
         <v>3.621</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>-20.164</v>
+        <v>-20.214</v>
       </c>
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
@@ -6214,7 +6214,7 @@
         <v>-2.876</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>-8.455</v>
+        <v>-8.505000000000001</v>
       </c>
       <c r="F84" s="1" t="n">
         <v>1.634</v>
@@ -6229,23 +6229,23 @@
         <v>-2.059</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>-8.145</v>
+        <v>-8.195</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
         <v>0.881</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O84" s="1" t="n">
         <v>-3.757</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>-4.539</v>
+        <v>-5.394000000000001</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -6288,7 +6288,7 @@
         <v>-2.876</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>-8.455</v>
+        <v>-8.505000000000001</v>
       </c>
       <c r="F85" s="1" t="n">
         <v>1.634</v>
@@ -6303,10 +6303,10 @@
         <v>-2.059</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>-8.145</v>
+        <v>-8.195</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
@@ -6319,7 +6319,7 @@
         <v>-7.689</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>-20.164</v>
+        <v>-20.214</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>-10.915</v>
+        <v>-10.965</v>
       </c>
       <c r="F86" s="1" t="n">
         <v>10.1</v>
@@ -6375,23 +6375,23 @@
         <v>5.05</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>-10.165</v>
+        <v>-10.215</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-11.665</v>
+        <v>-11.715</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>-10.915</v>
+        <v>-10.965</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y89" s="1" t="n">
         <v>11</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y90" s="1" t="n">
         <v>11</v>
@@ -6967,13 +6967,13 @@
         <v>-2.561</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O94" s="1" t="n">
         <v>-4.714</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>-3.159</v>
+        <v>-3.964</v>
       </c>
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
@@ -7113,13 +7113,13 @@
         <v>2.561</v>
       </c>
       <c r="N96" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O96" s="1" t="n">
         <v>-9.836</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>-3.609</v>
+        <v>-4.414000000000001</v>
       </c>
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
@@ -7231,7 +7231,7 @@
         <v>71</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.215</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>0.825</v>
@@ -7243,10 +7243,10 @@
         <v>0.4</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>-4.425</v>
+        <v>-4.415</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>-4.024999999999999</v>
+        <v>-4.015</v>
       </c>
       <c r="J98" s="1" t="n">
         <v>1.025</v>
@@ -7259,13 +7259,13 @@
         <v>0.889</v>
       </c>
       <c r="N98" s="1" t="n">
-        <v>-3.918</v>
+        <v>-3.113</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-5.114</v>
+        <v>-5.104</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>4.742999999999999</v>
+        <v>3.938</v>
       </c>
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
@@ -7305,7 +7305,7 @@
         <v>71</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.215</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>0.825</v>
@@ -7317,10 +7317,10 @@
         <v>0.4</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>-4.425</v>
+        <v>-4.415</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>-4.024999999999999</v>
+        <v>-4.015</v>
       </c>
       <c r="J99" s="1" t="n">
         <v>1.025</v>
@@ -7333,13 +7333,13 @@
         <v>-0.5730000000000001</v>
       </c>
       <c r="N99" s="1" t="n">
-        <v>-3.918</v>
+        <v>-3.113</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>-3.652</v>
+        <v>-3.642</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>4.742999999999999</v>
+        <v>3.938</v>
       </c>
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
@@ -7379,7 +7379,7 @@
         <v>71</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.215</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>0.825</v>
@@ -7391,10 +7391,10 @@
         <v>0.4</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>-4.425</v>
+        <v>-4.415</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>-4.024999999999999</v>
+        <v>-4.015</v>
       </c>
       <c r="J100" s="1" t="n">
         <v>1.025</v>
@@ -7410,7 +7410,7 @@
         <v>11.707</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>-9.045999999999999</v>
+        <v>-9.036</v>
       </c>
       <c r="P100" s="1" t="n">
         <v>-10.882</v>
@@ -7451,7 +7451,7 @@
         <v>71</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>-4.225</v>
+        <v>-4.215</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>0.825</v>
@@ -7463,10 +7463,10 @@
         <v>0.4</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>-4.425</v>
+        <v>-4.415</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>-4.024999999999999</v>
+        <v>-4.015</v>
       </c>
       <c r="J101" s="1" t="n">
         <v>1.025</v>
@@ -7482,7 +7482,7 @@
         <v>11.707</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>0.2800000000000002</v>
+        <v>0.29</v>
       </c>
       <c r="P101" s="1" t="n">
         <v>-10.882</v>
@@ -7551,13 +7551,13 @@
         <v>0</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>0</v>
+        <v>0.805</v>
       </c>
       <c r="O102" s="1" t="n">
         <v>4.175</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>4.125</v>
+        <v>3.32</v>
       </c>
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
@@ -7622,10 +7622,10 @@
       </c>
       <c r="L103" s="1" t="n"/>
       <c r="M103" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N103" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O103" s="1" t="n">
         <v>-3.475</v>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y103" s="1" t="n">
         <v>17</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y104" s="1" t="n">
         <v>17</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y106" s="1" t="n">
         <v>11</v>
@@ -7916,13 +7916,13 @@
       </c>
       <c r="L107" s="1" t="n"/>
       <c r="M107" s="1" t="n">
-        <v>14.984</v>
+        <v>14.985</v>
       </c>
       <c r="N107" s="1" t="n">
         <v>5.745</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>-19.259</v>
+        <v>-19.26</v>
       </c>
       <c r="P107" s="1" t="n">
         <v>-9.07</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y107" s="1" t="n">
         <v>11</v>
@@ -7968,7 +7968,7 @@
         <v>-2.225</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>-4.325</v>
+        <v>-4.375</v>
       </c>
       <c r="F108" s="1" t="n">
         <v>0.7</v>
@@ -7983,23 +7983,23 @@
         <v>-1.875</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>-4.025</v>
+        <v>-4.075</v>
       </c>
       <c r="K108" s="1" t="n">
-        <v>-4.625</v>
+        <v>-4.675</v>
       </c>
       <c r="L108" s="1" t="n"/>
       <c r="M108" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N108" s="1" t="n">
-        <v>-0.724</v>
+        <v>0.07700000000000007</v>
       </c>
       <c r="O108" s="1" t="n">
         <v>-2.225</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>-3.601</v>
+        <v>-4.452</v>
       </c>
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
@@ -8042,7 +8042,7 @@
         <v>-0.675</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>-7.065</v>
+        <v>-7.115</v>
       </c>
       <c r="F109" s="1" t="n">
         <v>1.3</v>
@@ -8057,23 +8057,23 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="J109" s="1" t="n">
-        <v>-6.265000000000001</v>
+        <v>-6.315</v>
       </c>
       <c r="K109" s="1" t="n">
-        <v>-7.865</v>
+        <v>-7.915</v>
       </c>
       <c r="L109" s="1" t="n"/>
       <c r="M109" s="1" t="n">
         <v>-0.5860000000000003</v>
       </c>
       <c r="N109" s="1" t="n">
-        <v>-4.404</v>
+        <v>-3.599</v>
       </c>
       <c r="O109" s="1" t="n">
         <v>-0.08899999999999975</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>-2.661</v>
+        <v>-3.516</v>
       </c>
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
@@ -8116,7 +8116,7 @@
         <v>-0.675</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>-7.065</v>
+        <v>-7.115</v>
       </c>
       <c r="F110" s="1" t="n">
         <v>1.3</v>
@@ -8131,10 +8131,10 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="J110" s="1" t="n">
-        <v>-6.265000000000001</v>
+        <v>-6.315</v>
       </c>
       <c r="K110" s="1" t="n">
-        <v>-7.865</v>
+        <v>-7.915</v>
       </c>
       <c r="L110" s="1" t="n"/>
       <c r="M110" s="1" t="n">
@@ -8147,7 +8147,7 @@
         <v>3.843</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>-18.286</v>
+        <v>-18.336</v>
       </c>
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
@@ -8188,7 +8188,7 @@
         <v>-2.025</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>-7.065</v>
+        <v>-7.115</v>
       </c>
       <c r="F111" s="1" t="n">
         <v>1.3</v>
@@ -8203,23 +8203,23 @@
         <v>-1.375</v>
       </c>
       <c r="J111" s="1" t="n">
-        <v>-6.265000000000001</v>
+        <v>-6.315</v>
       </c>
       <c r="K111" s="1" t="n">
-        <v>-7.865</v>
+        <v>-7.915</v>
       </c>
       <c r="L111" s="1" t="n"/>
       <c r="M111" s="1" t="n">
         <v>0.6419999999999999</v>
       </c>
       <c r="N111" s="1" t="n">
-        <v>-4.404</v>
+        <v>-3.599</v>
       </c>
       <c r="O111" s="1" t="n">
         <v>-2.667</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>-2.661</v>
+        <v>-3.516</v>
       </c>
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
@@ -8262,7 +8262,7 @@
         <v>-2.025</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>-7.065</v>
+        <v>-7.115</v>
       </c>
       <c r="F112" s="1" t="n">
         <v>1.3</v>
@@ -8277,10 +8277,10 @@
         <v>-1.375</v>
       </c>
       <c r="J112" s="1" t="n">
-        <v>-6.265000000000001</v>
+        <v>-6.315</v>
       </c>
       <c r="K112" s="1" t="n">
-        <v>-7.865</v>
+        <v>-7.915</v>
       </c>
       <c r="L112" s="1" t="n"/>
       <c r="M112" s="1" t="n">
@@ -8293,7 +8293,7 @@
         <v>-6.599</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>-18.286</v>
+        <v>-18.336</v>
       </c>
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
@@ -8334,7 +8334,7 @@
         <v>-2.225</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>-3.625</v>
+        <v>-3.675</v>
       </c>
       <c r="F113" s="1" t="n">
         <v>0.7</v>
@@ -8349,23 +8349,23 @@
         <v>-1.875</v>
       </c>
       <c r="J113" s="1" t="n">
-        <v>-3.275</v>
+        <v>-3.325</v>
       </c>
       <c r="K113" s="1" t="n">
-        <v>-3.975</v>
+        <v>-4.024999999999999</v>
       </c>
       <c r="L113" s="1" t="n"/>
       <c r="M113" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N113" s="1" t="n">
-        <v>0.758</v>
+        <v>1.559</v>
       </c>
       <c r="O113" s="1" t="n">
         <v>-2.225</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>-4.383</v>
+        <v>-5.234</v>
       </c>
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
@@ -8433,13 +8433,13 @@
         <v>-3.409</v>
       </c>
       <c r="N114" s="1" t="n">
-        <v>-3.874</v>
+        <v>-3.069</v>
       </c>
       <c r="O114" s="1" t="n">
         <v>2.184</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>4.649</v>
+        <v>3.844</v>
       </c>
       <c r="Q114" s="1" t="n"/>
       <c r="R114" s="1" t="n"/>
@@ -8507,13 +8507,13 @@
         <v>3.409</v>
       </c>
       <c r="N115" s="1" t="n">
-        <v>-3.874</v>
+        <v>-3.069</v>
       </c>
       <c r="O115" s="1" t="n">
         <v>-4.634</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>4.649</v>
+        <v>3.844</v>
       </c>
       <c r="Q115" s="1" t="n"/>
       <c r="R115" s="1" t="n"/>
@@ -8556,7 +8556,7 @@
         <v>3.925</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>-8.565</v>
+        <v>-8.615</v>
       </c>
       <c r="F116" s="1" t="n">
         <v>8.5</v>
@@ -8571,23 +8571,23 @@
         <v>8.175000000000001</v>
       </c>
       <c r="J116" s="1" t="n">
-        <v>-8.365</v>
+        <v>-8.415000000000001</v>
       </c>
       <c r="K116" s="1" t="n">
-        <v>-8.764999999999999</v>
+        <v>-8.815</v>
       </c>
       <c r="L116" s="1" t="n"/>
       <c r="M116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N116" s="1" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="O116" s="1" t="n">
         <v>3.925</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>-8.565</v>
+        <v>-8.575000000000001</v>
       </c>
       <c r="Q116" s="1" t="n"/>
       <c r="R116" s="1" t="n"/>
@@ -8630,7 +8630,7 @@
         <v>3.925</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>-8.565</v>
+        <v>-8.615</v>
       </c>
       <c r="F117" s="1" t="n">
         <v>8.5</v>
@@ -8645,10 +8645,10 @@
         <v>8.175000000000001</v>
       </c>
       <c r="J117" s="1" t="n">
-        <v>-8.365</v>
+        <v>-8.415000000000001</v>
       </c>
       <c r="K117" s="1" t="n">
-        <v>-8.764999999999999</v>
+        <v>-8.815</v>
       </c>
       <c r="L117" s="1" t="n"/>
       <c r="M117" s="1" t="n">
@@ -8661,7 +8661,7 @@
         <v>7.975</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>-23.785</v>
+        <v>-23.835</v>
       </c>
       <c r="Q117" s="1" t="n"/>
       <c r="R117" s="1" t="n"/>
@@ -8702,7 +8702,7 @@
         <v>3.925</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>-8.565</v>
+        <v>-8.615</v>
       </c>
       <c r="F118" s="1" t="n">
         <v>8.5</v>
@@ -8717,10 +8717,10 @@
         <v>8.175000000000001</v>
       </c>
       <c r="J118" s="1" t="n">
-        <v>-8.365</v>
+        <v>-8.415000000000001</v>
       </c>
       <c r="K118" s="1" t="n">
-        <v>-8.764999999999999</v>
+        <v>-8.815</v>
       </c>
       <c r="L118" s="1" t="n"/>
       <c r="M118" s="1" t="n">
@@ -8733,7 +8733,7 @@
         <v>-0.125</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>6.735000000000001</v>
+        <v>6.685</v>
       </c>
       <c r="Q118" s="1" t="n"/>
       <c r="R118" s="1" t="n"/>
@@ -9087,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="N123" s="1" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="O123" s="1" t="n">
         <v>-4.625</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>-0.625</v>
+        <v>-0.585</v>
       </c>
       <c r="Q123" s="1" t="n"/>
       <c r="R123" s="1" t="n"/>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="X123" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y123" s="1" t="n">
         <v>17</v>
@@ -9161,13 +9161,13 @@
         <v>-1.406</v>
       </c>
       <c r="N124" s="1" t="n">
-        <v>-3.842</v>
+        <v>-3.037</v>
       </c>
       <c r="O124" s="1" t="n">
         <v>-2.319</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>4.067</v>
+        <v>3.262</v>
       </c>
       <c r="Q124" s="1" t="n"/>
       <c r="R124" s="1" t="n"/>
@@ -9307,13 +9307,13 @@
         <v>1.406</v>
       </c>
       <c r="N126" s="1" t="n">
-        <v>-3.842</v>
+        <v>-3.037</v>
       </c>
       <c r="O126" s="1" t="n">
         <v>-4.281</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>4.067</v>
+        <v>3.262</v>
       </c>
       <c r="Q126" s="1" t="n"/>
       <c r="R126" s="1" t="n"/>
@@ -9741,13 +9741,13 @@
         <v>1.19</v>
       </c>
       <c r="N132" s="1" t="n">
-        <v>-3.907</v>
+        <v>-3.102</v>
       </c>
       <c r="O132" s="1" t="n">
         <v>-2.465</v>
       </c>
       <c r="P132" s="1" t="n">
-        <v>5.132</v>
+        <v>4.327</v>
       </c>
       <c r="Q132" s="1" t="n"/>
       <c r="R132" s="1" t="n"/>
@@ -9815,13 +9815,13 @@
         <v>-1.19</v>
       </c>
       <c r="N133" s="1" t="n">
-        <v>-3.907</v>
+        <v>-3.102</v>
       </c>
       <c r="O133" s="1" t="n">
         <v>-0.08499999999999996</v>
       </c>
       <c r="P133" s="1" t="n">
-        <v>5.132</v>
+        <v>4.327</v>
       </c>
       <c r="Q133" s="1" t="n"/>
       <c r="R133" s="1" t="n"/>
@@ -10008,7 +10008,7 @@
         <v>-2.225</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>-4.975</v>
+        <v>-5.025</v>
       </c>
       <c r="F136" s="1" t="n">
         <v>0.7</v>
@@ -10023,23 +10023,23 @@
         <v>-1.875</v>
       </c>
       <c r="J136" s="1" t="n">
-        <v>-4.675</v>
+        <v>-4.725000000000001</v>
       </c>
       <c r="K136" s="1" t="n">
-        <v>-5.274999999999999</v>
+        <v>-5.325</v>
       </c>
       <c r="L136" s="1" t="n"/>
       <c r="M136" s="1" t="n">
         <v>-1.061</v>
       </c>
       <c r="N136" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O136" s="1" t="n">
         <v>-1.164</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>-1.059</v>
+        <v>-1.914000000000001</v>
       </c>
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
@@ -10082,7 +10082,7 @@
         <v>-2.225</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>-4.975</v>
+        <v>-5.025</v>
       </c>
       <c r="F137" s="1" t="n">
         <v>0.7</v>
@@ -10097,10 +10097,10 @@
         <v>-1.875</v>
       </c>
       <c r="J137" s="1" t="n">
-        <v>-4.675</v>
+        <v>-4.725000000000001</v>
       </c>
       <c r="K137" s="1" t="n">
-        <v>-5.274999999999999</v>
+        <v>-5.325</v>
       </c>
       <c r="L137" s="1" t="n"/>
       <c r="M137" s="1" t="n">
@@ -10113,7 +10113,7 @@
         <v>2.767999999999999</v>
       </c>
       <c r="P137" s="1" t="n">
-        <v>-16.684</v>
+        <v>-16.734</v>
       </c>
       <c r="Q137" s="1" t="n"/>
       <c r="R137" s="1" t="n"/>
@@ -10154,7 +10154,7 @@
         <v>-2.225</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>-5.625</v>
+        <v>-5.675</v>
       </c>
       <c r="F138" s="1" t="n">
         <v>0.7</v>
@@ -10169,23 +10169,23 @@
         <v>-1.875</v>
       </c>
       <c r="J138" s="1" t="n">
-        <v>-5.325</v>
+        <v>-5.375</v>
       </c>
       <c r="K138" s="1" t="n">
-        <v>-5.925</v>
+        <v>-5.975</v>
       </c>
       <c r="L138" s="1" t="n"/>
       <c r="M138" s="1" t="n">
         <v>1.061</v>
       </c>
       <c r="N138" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O138" s="1" t="n">
         <v>-3.286</v>
       </c>
       <c r="P138" s="1" t="n">
-        <v>-1.709</v>
+        <v>-2.564</v>
       </c>
       <c r="Q138" s="1" t="n"/>
       <c r="R138" s="1" t="n"/>
@@ -10228,7 +10228,7 @@
         <v>-2.225</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>-5.625</v>
+        <v>-5.675</v>
       </c>
       <c r="F139" s="1" t="n">
         <v>0.7</v>
@@ -10243,10 +10243,10 @@
         <v>-1.875</v>
       </c>
       <c r="J139" s="1" t="n">
-        <v>-5.325</v>
+        <v>-5.375</v>
       </c>
       <c r="K139" s="1" t="n">
-        <v>-5.925</v>
+        <v>-5.975</v>
       </c>
       <c r="L139" s="1" t="n"/>
       <c r="M139" s="1" t="n">
@@ -10259,7 +10259,7 @@
         <v>-7.218</v>
       </c>
       <c r="P139" s="1" t="n">
-        <v>-17.334</v>
+        <v>-17.384</v>
       </c>
       <c r="Q139" s="1" t="n"/>
       <c r="R139" s="1" t="n"/>
@@ -10325,7 +10325,7 @@
         <v>13.4</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O140" s="1" t="n">
         <v>-18.675</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="X140" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y140" s="1" t="n">
         <v>17</v>
@@ -10399,7 +10399,7 @@
         <v>-13.4</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O141" s="1" t="n">
         <v>8.125</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="X141" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y141" s="1" t="n">
         <v>17</v>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="L142" s="1" t="n"/>
       <c r="M142" s="1" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N142" s="1" t="n">
         <v>-6.2</v>
@@ -10502,7 +10502,7 @@
         <v>17</v>
       </c>
       <c r="Y142" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Z142" s="1" t="n"/>
       <c r="AA142" s="1" t="n"/>
@@ -10522,7 +10522,7 @@
         <v>-4.543</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>-8.465</v>
+        <v>-8.515000000000001</v>
       </c>
       <c r="F143" s="1" t="n">
         <v>1.6</v>
@@ -10537,23 +10537,23 @@
         <v>-3.743</v>
       </c>
       <c r="J143" s="1" t="n">
-        <v>-8.164999999999999</v>
+        <v>-8.215</v>
       </c>
       <c r="K143" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L143" s="1" t="n"/>
       <c r="M143" s="1" t="n">
         <v>-0.881</v>
       </c>
       <c r="N143" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O143" s="1" t="n">
         <v>-3.662</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>-4.548999999999999</v>
+        <v>-5.404000000000001</v>
       </c>
       <c r="Q143" s="1" t="n"/>
       <c r="R143" s="1" t="n"/>
@@ -10596,7 +10596,7 @@
         <v>-4.543</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>-8.465</v>
+        <v>-8.515000000000001</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>1.6</v>
@@ -10611,10 +10611,10 @@
         <v>-3.743</v>
       </c>
       <c r="J144" s="1" t="n">
-        <v>-8.164999999999999</v>
+        <v>-8.215</v>
       </c>
       <c r="K144" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L144" s="1" t="n"/>
       <c r="M144" s="1" t="n">
@@ -10627,7 +10627,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="P144" s="1" t="n">
-        <v>-20.174</v>
+        <v>-20.224</v>
       </c>
       <c r="Q144" s="1" t="n"/>
       <c r="R144" s="1" t="n"/>
@@ -10668,7 +10668,7 @@
         <v>-6.193</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>-8.465</v>
+        <v>-8.515000000000001</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>1.6</v>
@@ -10683,23 +10683,23 @@
         <v>-5.393</v>
       </c>
       <c r="J145" s="1" t="n">
-        <v>-8.164999999999999</v>
+        <v>-8.215</v>
       </c>
       <c r="K145" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L145" s="1" t="n"/>
       <c r="M145" s="1" t="n">
         <v>0.881</v>
       </c>
       <c r="N145" s="1" t="n">
-        <v>-3.916</v>
+        <v>-3.111</v>
       </c>
       <c r="O145" s="1" t="n">
         <v>-7.074</v>
       </c>
       <c r="P145" s="1" t="n">
-        <v>-4.548999999999999</v>
+        <v>-5.404000000000001</v>
       </c>
       <c r="Q145" s="1" t="n"/>
       <c r="R145" s="1" t="n"/>
@@ -10742,7 +10742,7 @@
         <v>-6.193</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>-8.465</v>
+        <v>-8.515000000000001</v>
       </c>
       <c r="F146" s="1" t="n">
         <v>1.6</v>
@@ -10757,10 +10757,10 @@
         <v>-5.393</v>
       </c>
       <c r="J146" s="1" t="n">
-        <v>-8.164999999999999</v>
+        <v>-8.215</v>
       </c>
       <c r="K146" s="1" t="n">
-        <v>-8.765000000000001</v>
+        <v>-8.815000000000001</v>
       </c>
       <c r="L146" s="1" t="n"/>
       <c r="M146" s="1" t="n">
@@ -10773,7 +10773,7 @@
         <v>-11.006</v>
       </c>
       <c r="P146" s="1" t="n">
-        <v>-20.174</v>
+        <v>-20.224</v>
       </c>
       <c r="Q146" s="1" t="n"/>
       <c r="R146" s="1" t="n"/>
@@ -10879,7 +10879,7 @@
     <col customWidth="1" max="13" min="13" width="10"/>
     <col customWidth="1" max="14" min="14" width="6"/>
     <col customWidth="1" max="15" min="15" width="10"/>
-    <col customWidth="1" max="16" min="16" width="11"/>
+    <col customWidth="1" max="16" min="16" width="22"/>
     <col customWidth="1" max="17" min="17" width="9"/>
     <col customWidth="1" max="18" min="18" width="10"/>
     <col customWidth="1" max="19" min="19" width="6"/>
@@ -11045,13 +11045,13 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>27.5</v>
+        <v>27.94</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>27.82</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0.32</v>
+        <v>-0.12</v>
       </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -11090,13 +11090,13 @@
         <v>2</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>16.5</v>
+        <v>16.94</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>17.94</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1" t="n"/>
       <c r="T4" s="1" t="n"/>
@@ -11135,13 +11135,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>5.5</v>
+        <v>5.94</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>8.06</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="n"/>
@@ -11180,13 +11180,13 @@
         <v>4</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>-5.5</v>
+        <v>-5.06</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>-7.18</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.68</v>
+        <v>-2.12</v>
       </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="n"/>
@@ -11225,13 +11225,13 @@
         <v>5</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>-16.5</v>
+        <v>-16.06</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>-17.06</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="n"/>
@@ -11270,13 +11270,13 @@
         <v>6</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>-27.5</v>
+        <v>-27.06</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>-26.94</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S8" s="1" t="n"/>
       <c r="T8" s="1" t="n"/>
@@ -11389,13 +11389,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S11" s="1" t="n"/>
       <c r="T11" s="1" t="n"/>
@@ -11434,13 +11434,13 @@
         <v>2</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q12" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S12" s="1" t="n"/>
       <c r="T12" s="1" t="n"/>
@@ -11479,13 +11479,13 @@
         <v>3</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1" t="n"/>
@@ -11524,13 +11524,13 @@
         <v>4</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S14" s="1" t="n"/>
       <c r="T14" s="1" t="n"/>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>17</v>
@@ -11643,13 +11643,13 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>25.5</v>
+        <v>28.663</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>22.829</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-2.671</v>
+        <v>-5.834</v>
       </c>
       <c r="S17" s="1" t="n"/>
       <c r="T17" s="1" t="n"/>
@@ -11688,13 +11688,13 @@
         <v>2</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>8.5</v>
+        <v>11.663</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>18.497</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>9.997</v>
+        <v>6.834</v>
       </c>
       <c r="S18" s="1" t="n"/>
       <c r="T18" s="1" t="n"/>
@@ -11725,13 +11725,13 @@
         <v>3</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>-8.5</v>
+        <v>-5.337</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>-12.171</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-3.671</v>
+        <v>-6.834</v>
       </c>
       <c r="S19" s="1" t="n"/>
       <c r="T19" s="1" t="n"/>
@@ -11762,13 +11762,13 @@
         <v>4</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>-25.5</v>
+        <v>-22.337</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>-16.503</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>8.997</v>
+        <v>5.834</v>
       </c>
       <c r="S20" s="1" t="n"/>
       <c r="T20" s="1" t="n"/>
@@ -11881,13 +11881,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q23" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S23" s="1" t="n"/>
       <c r="T23" s="1" t="n"/>
@@ -11926,13 +11926,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S24" s="1" t="n"/>
       <c r="T24" s="1" t="n"/>
@@ -11971,13 +11971,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -12016,13 +12016,13 @@
         <v>4</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S26" s="1" t="n"/>
       <c r="T26" s="1" t="n"/>
@@ -12135,13 +12135,13 @@
         <v>1</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>27.5</v>
+        <v>28.301</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>28.181</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.681</v>
+        <v>-0.12</v>
       </c>
       <c r="S29" s="1" t="n"/>
       <c r="T29" s="1" t="n"/>
@@ -12180,13 +12180,13 @@
         <v>2</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>16.5</v>
+        <v>17.301</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>18.301</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>1.801</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1" t="n"/>
       <c r="T30" s="1" t="n"/>
@@ -12225,13 +12225,13 @@
         <v>3</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>5.5</v>
+        <v>6.301</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>8.420999999999999</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>2.921</v>
+        <v>2.12</v>
       </c>
       <c r="S31" s="1" t="n"/>
       <c r="T31" s="1" t="n"/>
@@ -12270,13 +12270,13 @@
         <v>4</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>-5.5</v>
+        <v>-4.699</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>-6.819</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.12</v>
       </c>
       <c r="S32" s="1" t="n"/>
       <c r="T32" s="1" t="n"/>
@@ -12315,13 +12315,13 @@
         <v>5</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>-16.5</v>
+        <v>-15.699</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>-16.699</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.199</v>
+        <v>-1</v>
       </c>
       <c r="S33" s="1" t="n"/>
       <c r="T33" s="1" t="n"/>
@@ -12360,13 +12360,13 @@
         <v>6</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>-27.5</v>
+        <v>-26.699</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>-26.579</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.921</v>
+        <v>0.12</v>
       </c>
       <c r="S34" s="1" t="n"/>
       <c r="T34" s="1" t="n"/>
@@ -12553,13 +12553,13 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S39" s="1" t="n"/>
       <c r="T39" s="1" t="n"/>
@@ -12598,13 +12598,13 @@
         <v>2</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q40" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S40" s="1" t="n"/>
       <c r="T40" s="1" t="n"/>
@@ -12643,13 +12643,13 @@
         <v>3</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S41" s="1" t="n"/>
       <c r="T41" s="1" t="n"/>
@@ -12688,13 +12688,13 @@
         <v>4</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S42" s="1" t="n"/>
       <c r="T42" s="1" t="n"/>
@@ -12807,13 +12807,13 @@
         <v>1</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S45" s="1" t="n"/>
       <c r="T45" s="1" t="n"/>
@@ -12852,13 +12852,13 @@
         <v>2</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q46" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S46" s="1" t="n"/>
       <c r="T46" s="1" t="n"/>
@@ -12897,13 +12897,13 @@
         <v>3</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S47" s="1" t="n"/>
       <c r="T47" s="1" t="n"/>
@@ -12942,13 +12942,13 @@
         <v>4</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q48" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S48" s="1" t="n"/>
       <c r="T48" s="1" t="n"/>
@@ -13061,13 +13061,13 @@
         <v>1</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>27.5</v>
+        <v>28.301</v>
       </c>
       <c r="Q51" s="1" t="n">
         <v>28.181</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0.681</v>
+        <v>-0.12</v>
       </c>
       <c r="S51" s="1" t="n"/>
       <c r="T51" s="1" t="n"/>
@@ -13106,13 +13106,13 @@
         <v>2</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>16.5</v>
+        <v>17.301</v>
       </c>
       <c r="Q52" s="1" t="n">
         <v>18.301</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>1.801</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1" t="n"/>
       <c r="T52" s="1" t="n"/>
@@ -13151,13 +13151,13 @@
         <v>3</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>5.5</v>
+        <v>6.301</v>
       </c>
       <c r="Q53" s="1" t="n">
         <v>8.420999999999999</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>2.921</v>
+        <v>2.12</v>
       </c>
       <c r="S53" s="1" t="n"/>
       <c r="T53" s="1" t="n"/>
@@ -13196,13 +13196,13 @@
         <v>4</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>-5.5</v>
+        <v>-4.699</v>
       </c>
       <c r="Q54" s="1" t="n">
         <v>-6.819</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.12</v>
       </c>
       <c r="S54" s="1" t="n"/>
       <c r="T54" s="1" t="n"/>
@@ -13241,13 +13241,13 @@
         <v>5</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>-16.5</v>
+        <v>-15.699</v>
       </c>
       <c r="Q55" s="1" t="n">
         <v>-16.699</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.199</v>
+        <v>-1</v>
       </c>
       <c r="S55" s="1" t="n"/>
       <c r="T55" s="1" t="n"/>
@@ -13286,13 +13286,13 @@
         <v>6</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>-27.5</v>
+        <v>-26.699</v>
       </c>
       <c r="Q56" s="1" t="n">
         <v>-26.579</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.921</v>
+        <v>0.12</v>
       </c>
       <c r="S56" s="1" t="n"/>
       <c r="T56" s="1" t="n"/>
@@ -13479,13 +13479,13 @@
         <v>1</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>27.5</v>
+        <v>28.301</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>28.181</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.681</v>
+        <v>-0.12</v>
       </c>
       <c r="S61" s="1" t="n"/>
       <c r="T61" s="1" t="n"/>
@@ -13524,13 +13524,13 @@
         <v>2</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>16.5</v>
+        <v>17.301</v>
       </c>
       <c r="Q62" s="1" t="n">
         <v>18.301</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>1.801</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1" t="n"/>
       <c r="T62" s="1" t="n"/>
@@ -13569,13 +13569,13 @@
         <v>3</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>5.5</v>
+        <v>6.301</v>
       </c>
       <c r="Q63" s="1" t="n">
         <v>8.420999999999999</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>2.921</v>
+        <v>2.12</v>
       </c>
       <c r="S63" s="1" t="n"/>
       <c r="T63" s="1" t="n"/>
@@ -13614,13 +13614,13 @@
         <v>4</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-5.5</v>
+        <v>-4.699</v>
       </c>
       <c r="Q64" s="1" t="n">
         <v>-6.819</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.12</v>
       </c>
       <c r="S64" s="1" t="n"/>
       <c r="T64" s="1" t="n"/>
@@ -13651,13 +13651,13 @@
         <v>5</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-16.5</v>
+        <v>-15.699</v>
       </c>
       <c r="Q65" s="1" t="n">
         <v>-16.699</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-0.199</v>
+        <v>-1</v>
       </c>
       <c r="S65" s="1" t="n"/>
       <c r="T65" s="1" t="n"/>
@@ -13688,13 +13688,13 @@
         <v>6</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-27.5</v>
+        <v>-26.699</v>
       </c>
       <c r="Q66" s="1" t="n">
         <v>-26.579</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0.921</v>
+        <v>0.12</v>
       </c>
       <c r="S66" s="1" t="n"/>
       <c r="T66" s="1" t="n"/>
@@ -13807,13 +13807,13 @@
         <v>1</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>27.5</v>
+        <v>28.301</v>
       </c>
       <c r="Q69" s="1" t="n">
         <v>28.181</v>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0.681</v>
+        <v>-0.12</v>
       </c>
       <c r="S69" s="1" t="n"/>
       <c r="T69" s="1" t="n"/>
@@ -13852,13 +13852,13 @@
         <v>2</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>16.5</v>
+        <v>17.301</v>
       </c>
       <c r="Q70" s="1" t="n">
         <v>18.301</v>
       </c>
       <c r="R70" s="1" t="n">
-        <v>1.801</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1" t="n"/>
       <c r="T70" s="1" t="n"/>
@@ -13897,13 +13897,13 @@
         <v>3</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>5.5</v>
+        <v>6.301</v>
       </c>
       <c r="Q71" s="1" t="n">
         <v>8.420999999999999</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>2.921</v>
+        <v>2.12</v>
       </c>
       <c r="S71" s="1" t="n"/>
       <c r="T71" s="1" t="n"/>
@@ -13942,13 +13942,13 @@
         <v>4</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>-5.5</v>
+        <v>-4.699</v>
       </c>
       <c r="Q72" s="1" t="n">
         <v>-6.819</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.12</v>
       </c>
       <c r="S72" s="1" t="n"/>
       <c r="T72" s="1" t="n"/>
@@ -13979,13 +13979,13 @@
         <v>5</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>-16.5</v>
+        <v>-15.699</v>
       </c>
       <c r="Q73" s="1" t="n">
         <v>-16.699</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.199</v>
+        <v>-1</v>
       </c>
       <c r="S73" s="1" t="n"/>
       <c r="T73" s="1" t="n"/>
@@ -14016,13 +14016,13 @@
         <v>6</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>-27.5</v>
+        <v>-26.699</v>
       </c>
       <c r="Q74" s="1" t="n">
         <v>-26.579</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0.921</v>
+        <v>0.12</v>
       </c>
       <c r="S74" s="1" t="n"/>
       <c r="T74" s="1" t="n"/>
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>17</v>
@@ -14627,13 +14627,13 @@
         <v>1</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>27.5</v>
+        <v>28.301</v>
       </c>
       <c r="Q89" s="1" t="n">
         <v>28.181</v>
       </c>
       <c r="R89" s="1" t="n">
-        <v>0.681</v>
+        <v>-0.12</v>
       </c>
       <c r="S89" s="1" t="n"/>
       <c r="T89" s="1" t="n"/>
@@ -14672,13 +14672,13 @@
         <v>2</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>16.5</v>
+        <v>17.301</v>
       </c>
       <c r="Q90" s="1" t="n">
         <v>18.301</v>
       </c>
       <c r="R90" s="1" t="n">
-        <v>1.801</v>
+        <v>1</v>
       </c>
       <c r="S90" s="1" t="n"/>
       <c r="T90" s="1" t="n"/>
@@ -14717,13 +14717,13 @@
         <v>3</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>5.5</v>
+        <v>6.301</v>
       </c>
       <c r="Q91" s="1" t="n">
         <v>8.420999999999999</v>
       </c>
       <c r="R91" s="1" t="n">
-        <v>2.921</v>
+        <v>2.12</v>
       </c>
       <c r="S91" s="1" t="n"/>
       <c r="T91" s="1" t="n"/>
@@ -14762,13 +14762,13 @@
         <v>4</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>-5.5</v>
+        <v>-4.699</v>
       </c>
       <c r="Q92" s="1" t="n">
         <v>-6.819</v>
       </c>
       <c r="R92" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.12</v>
       </c>
       <c r="S92" s="1" t="n"/>
       <c r="T92" s="1" t="n"/>
@@ -14807,13 +14807,13 @@
         <v>5</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>-16.5</v>
+        <v>-15.699</v>
       </c>
       <c r="Q93" s="1" t="n">
         <v>-16.699</v>
       </c>
       <c r="R93" s="1" t="n">
-        <v>-0.199</v>
+        <v>-1</v>
       </c>
       <c r="S93" s="1" t="n"/>
       <c r="T93" s="1" t="n"/>
@@ -14852,13 +14852,13 @@
         <v>6</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>-27.5</v>
+        <v>-26.699</v>
       </c>
       <c r="Q94" s="1" t="n">
         <v>-26.579</v>
       </c>
       <c r="R94" s="1" t="n">
-        <v>0.921</v>
+        <v>0.12</v>
       </c>
       <c r="S94" s="1" t="n"/>
       <c r="T94" s="1" t="n"/>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H99" s="1" t="n">
         <v>11</v>
@@ -15045,13 +15045,13 @@
         <v>1</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>27.5</v>
+        <v>33.245</v>
       </c>
       <c r="Q99" s="1" t="n">
         <v>29.209</v>
       </c>
       <c r="R99" s="1" t="n">
-        <v>1.709</v>
+        <v>-4.036</v>
       </c>
       <c r="S99" s="1" t="n"/>
       <c r="T99" s="1" t="n"/>
@@ -15090,13 +15090,13 @@
         <v>2</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>16.5</v>
+        <v>22.245</v>
       </c>
       <c r="Q100" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R100" s="1" t="n">
-        <v>6.745</v>
+        <v>1</v>
       </c>
       <c r="S100" s="1" t="n"/>
       <c r="T100" s="1" t="n"/>
@@ -15127,13 +15127,13 @@
         <v>3</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>5.5</v>
+        <v>11.245</v>
       </c>
       <c r="Q101" s="1" t="n">
         <v>17.281</v>
       </c>
       <c r="R101" s="1" t="n">
-        <v>11.781</v>
+        <v>6.036</v>
       </c>
       <c r="S101" s="1" t="n"/>
       <c r="T101" s="1" t="n"/>
@@ -15164,13 +15164,13 @@
         <v>4</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>-5.5</v>
+        <v>0.2450000000000001</v>
       </c>
       <c r="Q102" s="1" t="n">
         <v>-5.791</v>
       </c>
       <c r="R102" s="1" t="n">
-        <v>-0.291</v>
+        <v>-6.036</v>
       </c>
       <c r="S102" s="1" t="n"/>
       <c r="T102" s="1" t="n"/>
@@ -15201,13 +15201,13 @@
         <v>5</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>-16.5</v>
+        <v>-10.755</v>
       </c>
       <c r="Q103" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R103" s="1" t="n">
-        <v>4.745</v>
+        <v>-1</v>
       </c>
       <c r="S103" s="1" t="n"/>
       <c r="T103" s="1" t="n"/>
@@ -15238,13 +15238,13 @@
         <v>6</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>-27.5</v>
+        <v>-21.755</v>
       </c>
       <c r="Q104" s="1" t="n">
         <v>-17.719</v>
       </c>
       <c r="R104" s="1" t="n">
-        <v>9.781000000000001</v>
+        <v>4.036</v>
       </c>
       <c r="S104" s="1" t="n"/>
       <c r="T104" s="1" t="n"/>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>11</v>
@@ -15357,13 +15357,13 @@
         <v>1</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>27.5</v>
+        <v>32.829</v>
       </c>
       <c r="Q107" s="1" t="n">
         <v>27.161</v>
       </c>
       <c r="R107" s="1" t="n">
-        <v>-0.339</v>
+        <v>-5.668</v>
       </c>
       <c r="S107" s="1" t="n"/>
       <c r="T107" s="1" t="n"/>
@@ -15402,13 +15402,13 @@
         <v>2</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>16.5</v>
+        <v>21.829</v>
       </c>
       <c r="Q108" s="1" t="n">
         <v>22.829</v>
       </c>
       <c r="R108" s="1" t="n">
-        <v>6.329</v>
+        <v>1</v>
       </c>
       <c r="S108" s="1" t="n"/>
       <c r="T108" s="1" t="n"/>
@@ -15439,13 +15439,13 @@
         <v>3</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>5.5</v>
+        <v>10.829</v>
       </c>
       <c r="Q109" s="1" t="n">
         <v>18.497</v>
       </c>
       <c r="R109" s="1" t="n">
-        <v>12.997</v>
+        <v>7.668</v>
       </c>
       <c r="S109" s="1" t="n"/>
       <c r="T109" s="1" t="n"/>
@@ -15476,13 +15476,13 @@
         <v>4</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>-5.5</v>
+        <v>-0.1710000000000003</v>
       </c>
       <c r="Q110" s="1" t="n">
         <v>-7.839</v>
       </c>
       <c r="R110" s="1" t="n">
-        <v>-2.339</v>
+        <v>-7.668</v>
       </c>
       <c r="S110" s="1" t="n"/>
       <c r="T110" s="1" t="n"/>
@@ -15513,13 +15513,13 @@
         <v>5</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>-16.5</v>
+        <v>-11.171</v>
       </c>
       <c r="Q111" s="1" t="n">
         <v>-12.171</v>
       </c>
       <c r="R111" s="1" t="n">
-        <v>4.329</v>
+        <v>-1</v>
       </c>
       <c r="S111" s="1" t="n"/>
       <c r="T111" s="1" t="n"/>
@@ -15550,13 +15550,13 @@
         <v>6</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>-27.5</v>
+        <v>-22.171</v>
       </c>
       <c r="Q112" s="1" t="n">
         <v>-16.503</v>
       </c>
       <c r="R112" s="1" t="n">
-        <v>10.997</v>
+        <v>5.668</v>
       </c>
       <c r="S112" s="1" t="n"/>
       <c r="T112" s="1" t="n"/>
@@ -15669,13 +15669,13 @@
         <v>1</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q115" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R115" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S115" s="1" t="n"/>
       <c r="T115" s="1" t="n"/>
@@ -15714,13 +15714,13 @@
         <v>2</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q116" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R116" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S116" s="1" t="n"/>
       <c r="T116" s="1" t="n"/>
@@ -15759,13 +15759,13 @@
         <v>3</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q117" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R117" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S117" s="1" t="n"/>
       <c r="T117" s="1" t="n"/>
@@ -15804,13 +15804,13 @@
         <v>4</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q118" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R118" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S118" s="1" t="n"/>
       <c r="T118" s="1" t="n"/>
@@ -15923,13 +15923,13 @@
         <v>1</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q121" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R121" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S121" s="1" t="n"/>
       <c r="T121" s="1" t="n"/>
@@ -15968,13 +15968,13 @@
         <v>2</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q122" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R122" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S122" s="1" t="n"/>
       <c r="T122" s="1" t="n"/>
@@ -16013,13 +16013,13 @@
         <v>3</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q123" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R123" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S123" s="1" t="n"/>
       <c r="T123" s="1" t="n"/>
@@ -16058,13 +16058,13 @@
         <v>4</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q124" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R124" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S124" s="1" t="n"/>
       <c r="T124" s="1" t="n"/>
@@ -16177,13 +16177,13 @@
         <v>1</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>27.5</v>
+        <v>27.46</v>
       </c>
       <c r="Q127" s="1" t="n">
         <v>27.34</v>
       </c>
       <c r="R127" s="1" t="n">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="S127" s="1" t="n"/>
       <c r="T127" s="1" t="n"/>
@@ -16222,13 +16222,13 @@
         <v>2</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>16.5</v>
+        <v>16.46</v>
       </c>
       <c r="Q128" s="1" t="n">
         <v>17.46</v>
       </c>
       <c r="R128" s="1" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="S128" s="1" t="n"/>
       <c r="T128" s="1" t="n"/>
@@ -16267,13 +16267,13 @@
         <v>3</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>5.5</v>
+        <v>5.46</v>
       </c>
       <c r="Q129" s="1" t="n">
         <v>7.58</v>
       </c>
       <c r="R129" s="1" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S129" s="1" t="n"/>
       <c r="T129" s="1" t="n"/>
@@ -16312,13 +16312,13 @@
         <v>4</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>-5.5</v>
+        <v>-5.54</v>
       </c>
       <c r="Q130" s="1" t="n">
         <v>-7.66</v>
       </c>
       <c r="R130" s="1" t="n">
-        <v>-2.16</v>
+        <v>-2.12</v>
       </c>
       <c r="S130" s="1" t="n"/>
       <c r="T130" s="1" t="n"/>
@@ -16349,13 +16349,13 @@
         <v>5</v>
       </c>
       <c r="P131" s="1" t="n">
-        <v>-16.5</v>
+        <v>-16.54</v>
       </c>
       <c r="Q131" s="1" t="n">
         <v>-17.54</v>
       </c>
       <c r="R131" s="1" t="n">
-        <v>-1.04</v>
+        <v>-1</v>
       </c>
       <c r="S131" s="1" t="n"/>
       <c r="T131" s="1" t="n"/>
@@ -16386,13 +16386,13 @@
         <v>6</v>
       </c>
       <c r="P132" s="1" t="n">
-        <v>-27.5</v>
+        <v>-27.54</v>
       </c>
       <c r="Q132" s="1" t="n">
         <v>-27.42</v>
       </c>
       <c r="R132" s="1" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="S132" s="1" t="n"/>
       <c r="T132" s="1" t="n"/>
@@ -16482,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H135" s="1" t="n">
         <v>17</v>
@@ -16505,13 +16505,13 @@
         <v>1</v>
       </c>
       <c r="P135" s="1" t="n">
-        <v>25.5</v>
+        <v>25.46</v>
       </c>
       <c r="Q135" s="1" t="n">
         <v>32.91</v>
       </c>
       <c r="R135" s="1" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="S135" s="1" t="n"/>
       <c r="T135" s="1" t="n"/>
@@ -16550,13 +16550,13 @@
         <v>2</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>8.5</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q136" s="1" t="n">
         <v>2.01</v>
       </c>
       <c r="R136" s="1" t="n">
-        <v>-6.49</v>
+        <v>-6.45</v>
       </c>
       <c r="S136" s="1" t="n"/>
       <c r="T136" s="1" t="n"/>
@@ -16587,13 +16587,13 @@
         <v>3</v>
       </c>
       <c r="P137" s="1" t="n">
-        <v>-8.5</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="Q137" s="1" t="n">
         <v>-2.09</v>
       </c>
       <c r="R137" s="1" t="n">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="S137" s="1" t="n"/>
       <c r="T137" s="1" t="n"/>
@@ -16624,13 +16624,13 @@
         <v>4</v>
       </c>
       <c r="P138" s="1" t="n">
-        <v>-25.5</v>
+        <v>-25.54</v>
       </c>
       <c r="Q138" s="1" t="n">
         <v>-32.99</v>
       </c>
       <c r="R138" s="1" t="n">
-        <v>-7.49</v>
+        <v>-7.45</v>
       </c>
       <c r="S138" s="1" t="n"/>
       <c r="T138" s="1" t="n"/>
@@ -16743,13 +16743,13 @@
         <v>1</v>
       </c>
       <c r="P141" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q141" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R141" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S141" s="1" t="n"/>
       <c r="T141" s="1" t="n"/>
@@ -16788,13 +16788,13 @@
         <v>2</v>
       </c>
       <c r="P142" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q142" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R142" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S142" s="1" t="n"/>
       <c r="T142" s="1" t="n"/>
@@ -16833,13 +16833,13 @@
         <v>3</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q143" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R143" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S143" s="1" t="n"/>
       <c r="T143" s="1" t="n"/>
@@ -16878,13 +16878,13 @@
         <v>4</v>
       </c>
       <c r="P144" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q144" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R144" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S144" s="1" t="n"/>
       <c r="T144" s="1" t="n"/>
@@ -16997,13 +16997,13 @@
         <v>1</v>
       </c>
       <c r="P147" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q147" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R147" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S147" s="1" t="n"/>
       <c r="T147" s="1" t="n"/>
@@ -17042,13 +17042,13 @@
         <v>2</v>
       </c>
       <c r="P148" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q148" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R148" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S148" s="1" t="n"/>
       <c r="T148" s="1" t="n"/>
@@ -17087,13 +17087,13 @@
         <v>3</v>
       </c>
       <c r="P149" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q149" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R149" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S149" s="1" t="n"/>
       <c r="T149" s="1" t="n"/>
@@ -17132,13 +17132,13 @@
         <v>4</v>
       </c>
       <c r="P150" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q150" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R150" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S150" s="1" t="n"/>
       <c r="T150" s="1" t="n"/>
@@ -17251,13 +17251,13 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q153" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R153" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S153" s="1" t="n"/>
       <c r="T153" s="1" t="n"/>
@@ -17296,13 +17296,13 @@
         <v>2</v>
       </c>
       <c r="P154" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q154" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R154" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S154" s="1" t="n"/>
       <c r="T154" s="1" t="n"/>
@@ -17341,13 +17341,13 @@
         <v>3</v>
       </c>
       <c r="P155" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q155" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R155" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S155" s="1" t="n"/>
       <c r="T155" s="1" t="n"/>
@@ -17386,13 +17386,13 @@
         <v>4</v>
       </c>
       <c r="P156" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q156" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R156" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S156" s="1" t="n"/>
       <c r="T156" s="1" t="n"/>
@@ -17505,13 +17505,13 @@
         <v>1</v>
       </c>
       <c r="P159" s="1" t="n">
-        <v>27.5</v>
+        <v>28.301</v>
       </c>
       <c r="Q159" s="1" t="n">
         <v>28.181</v>
       </c>
       <c r="R159" s="1" t="n">
-        <v>0.681</v>
+        <v>-0.12</v>
       </c>
       <c r="S159" s="1" t="n"/>
       <c r="T159" s="1" t="n"/>
@@ -17550,13 +17550,13 @@
         <v>2</v>
       </c>
       <c r="P160" s="1" t="n">
-        <v>16.5</v>
+        <v>17.301</v>
       </c>
       <c r="Q160" s="1" t="n">
         <v>18.301</v>
       </c>
       <c r="R160" s="1" t="n">
-        <v>1.801</v>
+        <v>1</v>
       </c>
       <c r="S160" s="1" t="n"/>
       <c r="T160" s="1" t="n"/>
@@ -17595,13 +17595,13 @@
         <v>3</v>
       </c>
       <c r="P161" s="1" t="n">
-        <v>5.5</v>
+        <v>6.301</v>
       </c>
       <c r="Q161" s="1" t="n">
         <v>8.420999999999999</v>
       </c>
       <c r="R161" s="1" t="n">
-        <v>2.921</v>
+        <v>2.12</v>
       </c>
       <c r="S161" s="1" t="n"/>
       <c r="T161" s="1" t="n"/>
@@ -17640,13 +17640,13 @@
         <v>4</v>
       </c>
       <c r="P162" s="1" t="n">
-        <v>-5.5</v>
+        <v>-4.699</v>
       </c>
       <c r="Q162" s="1" t="n">
         <v>-6.819</v>
       </c>
       <c r="R162" s="1" t="n">
-        <v>-1.319</v>
+        <v>-2.12</v>
       </c>
       <c r="S162" s="1" t="n"/>
       <c r="T162" s="1" t="n"/>
@@ -17685,13 +17685,13 @@
         <v>5</v>
       </c>
       <c r="P163" s="1" t="n">
-        <v>-16.5</v>
+        <v>-15.699</v>
       </c>
       <c r="Q163" s="1" t="n">
         <v>-16.699</v>
       </c>
       <c r="R163" s="1" t="n">
-        <v>-0.199</v>
+        <v>-1</v>
       </c>
       <c r="S163" s="1" t="n"/>
       <c r="T163" s="1" t="n"/>
@@ -17730,13 +17730,13 @@
         <v>6</v>
       </c>
       <c r="P164" s="1" t="n">
-        <v>-27.5</v>
+        <v>-26.699</v>
       </c>
       <c r="Q164" s="1" t="n">
         <v>-26.579</v>
       </c>
       <c r="R164" s="1" t="n">
-        <v>0.921</v>
+        <v>0.12</v>
       </c>
       <c r="S164" s="1" t="n"/>
       <c r="T164" s="1" t="n"/>
@@ -17923,13 +17923,13 @@
         <v>1</v>
       </c>
       <c r="P169" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q169" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R169" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S169" s="1" t="n"/>
       <c r="T169" s="1" t="n"/>
@@ -17968,13 +17968,13 @@
         <v>2</v>
       </c>
       <c r="P170" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q170" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R170" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S170" s="1" t="n"/>
       <c r="T170" s="1" t="n"/>
@@ -18013,13 +18013,13 @@
         <v>3</v>
       </c>
       <c r="P171" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q171" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R171" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S171" s="1" t="n"/>
       <c r="T171" s="1" t="n"/>
@@ -18058,13 +18058,13 @@
         <v>4</v>
       </c>
       <c r="P172" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q172" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R172" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S172" s="1" t="n"/>
       <c r="T172" s="1" t="n"/>
@@ -18177,13 +18177,13 @@
         <v>1</v>
       </c>
       <c r="P175" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q175" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R175" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S175" s="1" t="n"/>
       <c r="T175" s="1" t="n"/>
@@ -18222,13 +18222,13 @@
         <v>2</v>
       </c>
       <c r="P176" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q176" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R176" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S176" s="1" t="n"/>
       <c r="T176" s="1" t="n"/>
@@ -18267,13 +18267,13 @@
         <v>3</v>
       </c>
       <c r="P177" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q177" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R177" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S177" s="1" t="n"/>
       <c r="T177" s="1" t="n"/>
@@ -18312,13 +18312,13 @@
         <v>4</v>
       </c>
       <c r="P178" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q178" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R178" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S178" s="1" t="n"/>
       <c r="T178" s="1" t="n"/>
@@ -18431,13 +18431,13 @@
         <v>1</v>
       </c>
       <c r="P181" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q181" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R181" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S181" s="1" t="n"/>
       <c r="T181" s="1" t="n"/>
@@ -18476,13 +18476,13 @@
         <v>2</v>
       </c>
       <c r="P182" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q182" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R182" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S182" s="1" t="n"/>
       <c r="T182" s="1" t="n"/>
@@ -18521,13 +18521,13 @@
         <v>3</v>
       </c>
       <c r="P183" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q183" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R183" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S183" s="1" t="n"/>
       <c r="T183" s="1" t="n"/>
@@ -18566,13 +18566,13 @@
         <v>4</v>
       </c>
       <c r="P184" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q184" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R184" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S184" s="1" t="n"/>
       <c r="T184" s="1" t="n"/>
@@ -18685,13 +18685,13 @@
         <v>1</v>
       </c>
       <c r="P187" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q187" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R187" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S187" s="1" t="n"/>
       <c r="T187" s="1" t="n"/>
@@ -18730,13 +18730,13 @@
         <v>2</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q188" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R188" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S188" s="1" t="n"/>
       <c r="T188" s="1" t="n"/>
@@ -18775,13 +18775,13 @@
         <v>3</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q189" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R189" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S189" s="1" t="n"/>
       <c r="T189" s="1" t="n"/>
@@ -18820,13 +18820,13 @@
         <v>4</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q190" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R190" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S190" s="1" t="n"/>
       <c r="T190" s="1" t="n"/>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H199" s="1" t="n">
         <v>11</v>
@@ -19193,13 +19193,13 @@
         <v>1</v>
       </c>
       <c r="P199" s="1" t="n">
-        <v>27.5</v>
+        <v>33.245</v>
       </c>
       <c r="Q199" s="1" t="n">
         <v>29.209</v>
       </c>
       <c r="R199" s="1" t="n">
-        <v>1.709</v>
+        <v>-4.036</v>
       </c>
       <c r="S199" s="1" t="n"/>
       <c r="T199" s="1" t="n"/>
@@ -19238,13 +19238,13 @@
         <v>2</v>
       </c>
       <c r="P200" s="1" t="n">
-        <v>16.5</v>
+        <v>22.245</v>
       </c>
       <c r="Q200" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R200" s="1" t="n">
-        <v>6.745</v>
+        <v>1</v>
       </c>
       <c r="S200" s="1" t="n"/>
       <c r="T200" s="1" t="n"/>
@@ -19275,13 +19275,13 @@
         <v>3</v>
       </c>
       <c r="P201" s="1" t="n">
-        <v>5.5</v>
+        <v>11.245</v>
       </c>
       <c r="Q201" s="1" t="n">
         <v>17.281</v>
       </c>
       <c r="R201" s="1" t="n">
-        <v>11.781</v>
+        <v>6.036</v>
       </c>
       <c r="S201" s="1" t="n"/>
       <c r="T201" s="1" t="n"/>
@@ -19312,13 +19312,13 @@
         <v>4</v>
       </c>
       <c r="P202" s="1" t="n">
-        <v>-5.5</v>
+        <v>0.2450000000000001</v>
       </c>
       <c r="Q202" s="1" t="n">
         <v>-5.791</v>
       </c>
       <c r="R202" s="1" t="n">
-        <v>-0.291</v>
+        <v>-6.036</v>
       </c>
       <c r="S202" s="1" t="n"/>
       <c r="T202" s="1" t="n"/>
@@ -19349,13 +19349,13 @@
         <v>5</v>
       </c>
       <c r="P203" s="1" t="n">
-        <v>-16.5</v>
+        <v>-10.755</v>
       </c>
       <c r="Q203" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R203" s="1" t="n">
-        <v>4.745</v>
+        <v>-1</v>
       </c>
       <c r="S203" s="1" t="n"/>
       <c r="T203" s="1" t="n"/>
@@ -19386,13 +19386,13 @@
         <v>6</v>
       </c>
       <c r="P204" s="1" t="n">
-        <v>-27.5</v>
+        <v>-21.755</v>
       </c>
       <c r="Q204" s="1" t="n">
         <v>-17.719</v>
       </c>
       <c r="R204" s="1" t="n">
-        <v>9.781000000000001</v>
+        <v>4.036</v>
       </c>
       <c r="S204" s="1" t="n"/>
       <c r="T204" s="1" t="n"/>
@@ -19482,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H207" s="1" t="n">
         <v>11</v>
@@ -19505,13 +19505,13 @@
         <v>1</v>
       </c>
       <c r="P207" s="1" t="n">
-        <v>27.5</v>
+        <v>32.829</v>
       </c>
       <c r="Q207" s="1" t="n">
         <v>27.161</v>
       </c>
       <c r="R207" s="1" t="n">
-        <v>-0.339</v>
+        <v>-5.668</v>
       </c>
       <c r="S207" s="1" t="n"/>
       <c r="T207" s="1" t="n"/>
@@ -19550,13 +19550,13 @@
         <v>2</v>
       </c>
       <c r="P208" s="1" t="n">
-        <v>16.5</v>
+        <v>21.829</v>
       </c>
       <c r="Q208" s="1" t="n">
         <v>22.829</v>
       </c>
       <c r="R208" s="1" t="n">
-        <v>6.329</v>
+        <v>1</v>
       </c>
       <c r="S208" s="1" t="n"/>
       <c r="T208" s="1" t="n"/>
@@ -19587,13 +19587,13 @@
         <v>3</v>
       </c>
       <c r="P209" s="1" t="n">
-        <v>5.5</v>
+        <v>10.829</v>
       </c>
       <c r="Q209" s="1" t="n">
         <v>18.497</v>
       </c>
       <c r="R209" s="1" t="n">
-        <v>12.997</v>
+        <v>7.668</v>
       </c>
       <c r="S209" s="1" t="n"/>
       <c r="T209" s="1" t="n"/>
@@ -19624,13 +19624,13 @@
         <v>4</v>
       </c>
       <c r="P210" s="1" t="n">
-        <v>-5.5</v>
+        <v>-0.1710000000000003</v>
       </c>
       <c r="Q210" s="1" t="n">
         <v>-7.839</v>
       </c>
       <c r="R210" s="1" t="n">
-        <v>-2.339</v>
+        <v>-7.668</v>
       </c>
       <c r="S210" s="1" t="n"/>
       <c r="T210" s="1" t="n"/>
@@ -19661,13 +19661,13 @@
         <v>5</v>
       </c>
       <c r="P211" s="1" t="n">
-        <v>-16.5</v>
+        <v>-11.171</v>
       </c>
       <c r="Q211" s="1" t="n">
         <v>-12.171</v>
       </c>
       <c r="R211" s="1" t="n">
-        <v>4.329</v>
+        <v>-1</v>
       </c>
       <c r="S211" s="1" t="n"/>
       <c r="T211" s="1" t="n"/>
@@ -19698,13 +19698,13 @@
         <v>6</v>
       </c>
       <c r="P212" s="1" t="n">
-        <v>-27.5</v>
+        <v>-22.171</v>
       </c>
       <c r="Q212" s="1" t="n">
         <v>-16.503</v>
       </c>
       <c r="R212" s="1" t="n">
-        <v>10.997</v>
+        <v>5.668</v>
       </c>
       <c r="S212" s="1" t="n"/>
       <c r="T212" s="1" t="n"/>
@@ -19817,13 +19817,13 @@
         <v>1</v>
       </c>
       <c r="P215" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q215" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R215" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S215" s="1" t="n"/>
       <c r="T215" s="1" t="n"/>
@@ -19862,13 +19862,13 @@
         <v>2</v>
       </c>
       <c r="P216" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q216" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R216" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S216" s="1" t="n"/>
       <c r="T216" s="1" t="n"/>
@@ -19907,13 +19907,13 @@
         <v>3</v>
       </c>
       <c r="P217" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q217" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R217" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S217" s="1" t="n"/>
       <c r="T217" s="1" t="n"/>
@@ -19952,13 +19952,13 @@
         <v>4</v>
       </c>
       <c r="P218" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q218" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R218" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S218" s="1" t="n"/>
       <c r="T218" s="1" t="n"/>
@@ -20071,13 +20071,13 @@
         <v>1</v>
       </c>
       <c r="P221" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q221" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R221" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S221" s="1" t="n"/>
       <c r="T221" s="1" t="n"/>
@@ -20116,13 +20116,13 @@
         <v>2</v>
       </c>
       <c r="P222" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q222" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R222" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S222" s="1" t="n"/>
       <c r="T222" s="1" t="n"/>
@@ -20161,13 +20161,13 @@
         <v>3</v>
       </c>
       <c r="P223" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q223" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R223" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S223" s="1" t="n"/>
       <c r="T223" s="1" t="n"/>
@@ -20206,13 +20206,13 @@
         <v>4</v>
       </c>
       <c r="P224" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q224" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R224" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S224" s="1" t="n"/>
       <c r="T224" s="1" t="n"/>
@@ -20325,13 +20325,13 @@
         <v>1</v>
       </c>
       <c r="P227" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q227" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R227" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S227" s="1" t="n"/>
       <c r="T227" s="1" t="n"/>
@@ -20370,13 +20370,13 @@
         <v>2</v>
       </c>
       <c r="P228" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q228" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R228" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S228" s="1" t="n"/>
       <c r="T228" s="1" t="n"/>
@@ -20415,13 +20415,13 @@
         <v>3</v>
       </c>
       <c r="P229" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q229" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R229" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S229" s="1" t="n"/>
       <c r="T229" s="1" t="n"/>
@@ -20460,13 +20460,13 @@
         <v>4</v>
       </c>
       <c r="P230" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q230" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R230" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S230" s="1" t="n"/>
       <c r="T230" s="1" t="n"/>
@@ -20579,13 +20579,13 @@
         <v>1</v>
       </c>
       <c r="P233" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q233" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R233" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S233" s="1" t="n"/>
       <c r="T233" s="1" t="n"/>
@@ -20624,13 +20624,13 @@
         <v>2</v>
       </c>
       <c r="P234" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q234" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R234" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S234" s="1" t="n"/>
       <c r="T234" s="1" t="n"/>
@@ -20669,13 +20669,13 @@
         <v>3</v>
       </c>
       <c r="P235" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q235" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R235" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S235" s="1" t="n"/>
       <c r="T235" s="1" t="n"/>
@@ -20714,13 +20714,13 @@
         <v>4</v>
       </c>
       <c r="P236" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q236" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R236" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S236" s="1" t="n"/>
       <c r="T236" s="1" t="n"/>
@@ -20833,13 +20833,13 @@
         <v>1</v>
       </c>
       <c r="P239" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q239" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R239" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S239" s="1" t="n"/>
       <c r="T239" s="1" t="n"/>
@@ -20878,13 +20878,13 @@
         <v>2</v>
       </c>
       <c r="P240" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q240" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R240" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S240" s="1" t="n"/>
       <c r="T240" s="1" t="n"/>
@@ -20923,13 +20923,13 @@
         <v>3</v>
       </c>
       <c r="P241" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q241" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R241" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S241" s="1" t="n"/>
       <c r="T241" s="1" t="n"/>
@@ -20968,13 +20968,13 @@
         <v>4</v>
       </c>
       <c r="P242" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q242" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R242" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S242" s="1" t="n"/>
       <c r="T242" s="1" t="n"/>
@@ -21064,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="G245" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H245" s="1" t="n">
         <v>17</v>
@@ -21302,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H251" s="1" t="n">
         <v>17</v>
@@ -21325,13 +21325,13 @@
         <v>1</v>
       </c>
       <c r="P251" s="1" t="n">
-        <v>25.5</v>
+        <v>28.663</v>
       </c>
       <c r="Q251" s="1" t="n">
         <v>22.829</v>
       </c>
       <c r="R251" s="1" t="n">
-        <v>-2.671</v>
+        <v>-5.834</v>
       </c>
       <c r="S251" s="1" t="n"/>
       <c r="T251" s="1" t="n"/>
@@ -21370,13 +21370,13 @@
         <v>2</v>
       </c>
       <c r="P252" s="1" t="n">
-        <v>8.5</v>
+        <v>11.663</v>
       </c>
       <c r="Q252" s="1" t="n">
         <v>18.497</v>
       </c>
       <c r="R252" s="1" t="n">
-        <v>9.997</v>
+        <v>6.834</v>
       </c>
       <c r="S252" s="1" t="n"/>
       <c r="T252" s="1" t="n"/>
@@ -21407,13 +21407,13 @@
         <v>3</v>
       </c>
       <c r="P253" s="1" t="n">
-        <v>-8.5</v>
+        <v>-5.337</v>
       </c>
       <c r="Q253" s="1" t="n">
         <v>-12.171</v>
       </c>
       <c r="R253" s="1" t="n">
-        <v>-3.671</v>
+        <v>-6.834</v>
       </c>
       <c r="S253" s="1" t="n"/>
       <c r="T253" s="1" t="n"/>
@@ -21444,13 +21444,13 @@
         <v>4</v>
       </c>
       <c r="P254" s="1" t="n">
-        <v>-25.5</v>
+        <v>-22.337</v>
       </c>
       <c r="Q254" s="1" t="n">
         <v>-16.503</v>
       </c>
       <c r="R254" s="1" t="n">
-        <v>8.997</v>
+        <v>5.834</v>
       </c>
       <c r="S254" s="1" t="n"/>
       <c r="T254" s="1" t="n"/>
@@ -21540,7 +21540,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H257" s="1" t="n">
         <v>11</v>
@@ -21563,13 +21563,13 @@
         <v>1</v>
       </c>
       <c r="P257" s="1" t="n">
-        <v>27.5</v>
+        <v>32.829</v>
       </c>
       <c r="Q257" s="1" t="n">
         <v>27.161</v>
       </c>
       <c r="R257" s="1" t="n">
-        <v>-0.339</v>
+        <v>-5.668</v>
       </c>
       <c r="S257" s="1" t="n"/>
       <c r="T257" s="1" t="n"/>
@@ -21608,13 +21608,13 @@
         <v>2</v>
       </c>
       <c r="P258" s="1" t="n">
-        <v>16.5</v>
+        <v>21.829</v>
       </c>
       <c r="Q258" s="1" t="n">
         <v>22.829</v>
       </c>
       <c r="R258" s="1" t="n">
-        <v>6.329</v>
+        <v>1</v>
       </c>
       <c r="S258" s="1" t="n"/>
       <c r="T258" s="1" t="n"/>
@@ -21645,13 +21645,13 @@
         <v>3</v>
       </c>
       <c r="P259" s="1" t="n">
-        <v>5.5</v>
+        <v>10.829</v>
       </c>
       <c r="Q259" s="1" t="n">
         <v>18.497</v>
       </c>
       <c r="R259" s="1" t="n">
-        <v>12.997</v>
+        <v>7.668</v>
       </c>
       <c r="S259" s="1" t="n"/>
       <c r="T259" s="1" t="n"/>
@@ -21682,13 +21682,13 @@
         <v>4</v>
       </c>
       <c r="P260" s="1" t="n">
-        <v>-5.5</v>
+        <v>-0.1710000000000003</v>
       </c>
       <c r="Q260" s="1" t="n">
         <v>-7.839</v>
       </c>
       <c r="R260" s="1" t="n">
-        <v>-2.339</v>
+        <v>-7.668</v>
       </c>
       <c r="S260" s="1" t="n"/>
       <c r="T260" s="1" t="n"/>
@@ -21719,13 +21719,13 @@
         <v>5</v>
       </c>
       <c r="P261" s="1" t="n">
-        <v>-16.5</v>
+        <v>-11.171</v>
       </c>
       <c r="Q261" s="1" t="n">
         <v>-12.171</v>
       </c>
       <c r="R261" s="1" t="n">
-        <v>4.329</v>
+        <v>-1</v>
       </c>
       <c r="S261" s="1" t="n"/>
       <c r="T261" s="1" t="n"/>
@@ -21756,13 +21756,13 @@
         <v>6</v>
       </c>
       <c r="P262" s="1" t="n">
-        <v>-27.5</v>
+        <v>-22.171</v>
       </c>
       <c r="Q262" s="1" t="n">
         <v>-16.503</v>
       </c>
       <c r="R262" s="1" t="n">
-        <v>10.997</v>
+        <v>5.668</v>
       </c>
       <c r="S262" s="1" t="n"/>
       <c r="T262" s="1" t="n"/>
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H265" s="1" t="n">
         <v>11</v>
@@ -21875,13 +21875,13 @@
         <v>1</v>
       </c>
       <c r="P265" s="1" t="n">
-        <v>27.5</v>
+        <v>33.245</v>
       </c>
       <c r="Q265" s="1" t="n">
         <v>29.209</v>
       </c>
       <c r="R265" s="1" t="n">
-        <v>1.709</v>
+        <v>-4.036</v>
       </c>
       <c r="S265" s="1" t="n"/>
       <c r="T265" s="1" t="n"/>
@@ -21920,13 +21920,13 @@
         <v>2</v>
       </c>
       <c r="P266" s="1" t="n">
-        <v>16.5</v>
+        <v>22.245</v>
       </c>
       <c r="Q266" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R266" s="1" t="n">
-        <v>6.745</v>
+        <v>1</v>
       </c>
       <c r="S266" s="1" t="n"/>
       <c r="T266" s="1" t="n"/>
@@ -21957,13 +21957,13 @@
         <v>3</v>
       </c>
       <c r="P267" s="1" t="n">
-        <v>5.5</v>
+        <v>11.245</v>
       </c>
       <c r="Q267" s="1" t="n">
         <v>17.281</v>
       </c>
       <c r="R267" s="1" t="n">
-        <v>11.781</v>
+        <v>6.036</v>
       </c>
       <c r="S267" s="1" t="n"/>
       <c r="T267" s="1" t="n"/>
@@ -21994,13 +21994,13 @@
         <v>4</v>
       </c>
       <c r="P268" s="1" t="n">
-        <v>-5.5</v>
+        <v>0.2450000000000001</v>
       </c>
       <c r="Q268" s="1" t="n">
         <v>-5.791</v>
       </c>
       <c r="R268" s="1" t="n">
-        <v>-0.291</v>
+        <v>-6.036</v>
       </c>
       <c r="S268" s="1" t="n"/>
       <c r="T268" s="1" t="n"/>
@@ -22031,13 +22031,13 @@
         <v>5</v>
       </c>
       <c r="P269" s="1" t="n">
-        <v>-16.5</v>
+        <v>-10.755</v>
       </c>
       <c r="Q269" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R269" s="1" t="n">
-        <v>4.745</v>
+        <v>-1</v>
       </c>
       <c r="S269" s="1" t="n"/>
       <c r="T269" s="1" t="n"/>
@@ -22068,13 +22068,13 @@
         <v>6</v>
       </c>
       <c r="P270" s="1" t="n">
-        <v>-27.5</v>
+        <v>-21.755</v>
       </c>
       <c r="Q270" s="1" t="n">
         <v>-17.719</v>
       </c>
       <c r="R270" s="1" t="n">
-        <v>9.781000000000001</v>
+        <v>4.036</v>
       </c>
       <c r="S270" s="1" t="n"/>
       <c r="T270" s="1" t="n"/>
@@ -22187,13 +22187,13 @@
         <v>1</v>
       </c>
       <c r="P273" s="1" t="n">
-        <v>27.5</v>
+        <v>27.577</v>
       </c>
       <c r="Q273" s="1" t="n">
         <v>27.457</v>
       </c>
       <c r="R273" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.12</v>
       </c>
       <c r="S273" s="1" t="n"/>
       <c r="T273" s="1" t="n"/>
@@ -22232,13 +22232,13 @@
         <v>2</v>
       </c>
       <c r="P274" s="1" t="n">
-        <v>16.5</v>
+        <v>16.577</v>
       </c>
       <c r="Q274" s="1" t="n">
         <v>17.577</v>
       </c>
       <c r="R274" s="1" t="n">
-        <v>1.077</v>
+        <v>1</v>
       </c>
       <c r="S274" s="1" t="n"/>
       <c r="T274" s="1" t="n"/>
@@ -22277,13 +22277,13 @@
         <v>3</v>
       </c>
       <c r="P275" s="1" t="n">
-        <v>5.5</v>
+        <v>5.577</v>
       </c>
       <c r="Q275" s="1" t="n">
         <v>7.697</v>
       </c>
       <c r="R275" s="1" t="n">
-        <v>2.197</v>
+        <v>2.12</v>
       </c>
       <c r="S275" s="1" t="n"/>
       <c r="T275" s="1" t="n"/>
@@ -22322,13 +22322,13 @@
         <v>4</v>
       </c>
       <c r="P276" s="1" t="n">
-        <v>-5.5</v>
+        <v>-5.423</v>
       </c>
       <c r="Q276" s="1" t="n">
         <v>-7.543</v>
       </c>
       <c r="R276" s="1" t="n">
-        <v>-2.043</v>
+        <v>-2.12</v>
       </c>
       <c r="S276" s="1" t="n"/>
       <c r="T276" s="1" t="n"/>
@@ -22367,13 +22367,13 @@
         <v>5</v>
       </c>
       <c r="P277" s="1" t="n">
-        <v>-16.5</v>
+        <v>-16.423</v>
       </c>
       <c r="Q277" s="1" t="n">
         <v>-17.423</v>
       </c>
       <c r="R277" s="1" t="n">
-        <v>-0.923</v>
+        <v>-1</v>
       </c>
       <c r="S277" s="1" t="n"/>
       <c r="T277" s="1" t="n"/>
@@ -22412,13 +22412,13 @@
         <v>6</v>
       </c>
       <c r="P278" s="1" t="n">
-        <v>-27.5</v>
+        <v>-27.423</v>
       </c>
       <c r="Q278" s="1" t="n">
         <v>-27.303</v>
       </c>
       <c r="R278" s="1" t="n">
-        <v>0.197</v>
+        <v>0.12</v>
       </c>
       <c r="S278" s="1" t="n"/>
       <c r="T278" s="1" t="n"/>
@@ -22605,13 +22605,13 @@
         <v>1</v>
       </c>
       <c r="P283" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q283" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R283" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S283" s="1" t="n"/>
       <c r="T283" s="1" t="n"/>
@@ -22650,13 +22650,13 @@
         <v>2</v>
       </c>
       <c r="P284" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q284" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R284" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S284" s="1" t="n"/>
       <c r="T284" s="1" t="n"/>
@@ -22695,13 +22695,13 @@
         <v>3</v>
       </c>
       <c r="P285" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q285" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R285" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S285" s="1" t="n"/>
       <c r="T285" s="1" t="n"/>
@@ -22740,13 +22740,13 @@
         <v>4</v>
       </c>
       <c r="P286" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q286" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R286" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S286" s="1" t="n"/>
       <c r="T286" s="1" t="n"/>
@@ -22859,13 +22859,13 @@
         <v>1</v>
       </c>
       <c r="P289" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q289" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R289" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S289" s="1" t="n"/>
       <c r="T289" s="1" t="n"/>
@@ -22904,13 +22904,13 @@
         <v>2</v>
       </c>
       <c r="P290" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q290" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R290" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S290" s="1" t="n"/>
       <c r="T290" s="1" t="n"/>
@@ -22949,13 +22949,13 @@
         <v>3</v>
       </c>
       <c r="P291" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q291" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R291" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S291" s="1" t="n"/>
       <c r="T291" s="1" t="n"/>
@@ -22994,13 +22994,13 @@
         <v>4</v>
       </c>
       <c r="P292" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q292" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R292" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S292" s="1" t="n"/>
       <c r="T292" s="1" t="n"/>
@@ -23113,13 +23113,13 @@
         <v>1</v>
       </c>
       <c r="P295" s="1" t="n">
-        <v>27.5</v>
+        <v>29.059</v>
       </c>
       <c r="Q295" s="1" t="n">
         <v>28.939</v>
       </c>
       <c r="R295" s="1" t="n">
-        <v>1.439</v>
+        <v>-0.12</v>
       </c>
       <c r="S295" s="1" t="n"/>
       <c r="T295" s="1" t="n"/>
@@ -23158,13 +23158,13 @@
         <v>2</v>
       </c>
       <c r="P296" s="1" t="n">
-        <v>16.5</v>
+        <v>18.059</v>
       </c>
       <c r="Q296" s="1" t="n">
         <v>19.059</v>
       </c>
       <c r="R296" s="1" t="n">
-        <v>2.559</v>
+        <v>1</v>
       </c>
       <c r="S296" s="1" t="n"/>
       <c r="T296" s="1" t="n"/>
@@ -23203,13 +23203,13 @@
         <v>3</v>
       </c>
       <c r="P297" s="1" t="n">
-        <v>5.5</v>
+        <v>7.059</v>
       </c>
       <c r="Q297" s="1" t="n">
         <v>9.179</v>
       </c>
       <c r="R297" s="1" t="n">
-        <v>3.679</v>
+        <v>2.12</v>
       </c>
       <c r="S297" s="1" t="n"/>
       <c r="T297" s="1" t="n"/>
@@ -23248,13 +23248,13 @@
         <v>4</v>
       </c>
       <c r="P298" s="1" t="n">
-        <v>-5.5</v>
+        <v>-3.941</v>
       </c>
       <c r="Q298" s="1" t="n">
         <v>-6.061</v>
       </c>
       <c r="R298" s="1" t="n">
-        <v>-0.5610000000000001</v>
+        <v>-2.12</v>
       </c>
       <c r="S298" s="1" t="n"/>
       <c r="T298" s="1" t="n"/>
@@ -23293,13 +23293,13 @@
         <v>5</v>
       </c>
       <c r="P299" s="1" t="n">
-        <v>-16.5</v>
+        <v>-14.941</v>
       </c>
       <c r="Q299" s="1" t="n">
         <v>-15.941</v>
       </c>
       <c r="R299" s="1" t="n">
-        <v>0.5590000000000001</v>
+        <v>-1</v>
       </c>
       <c r="S299" s="1" t="n"/>
       <c r="T299" s="1" t="n"/>
@@ -23338,13 +23338,13 @@
         <v>6</v>
       </c>
       <c r="P300" s="1" t="n">
-        <v>-27.5</v>
+        <v>-25.941</v>
       </c>
       <c r="Q300" s="1" t="n">
         <v>-25.821</v>
       </c>
       <c r="R300" s="1" t="n">
-        <v>1.679</v>
+        <v>0.12</v>
       </c>
       <c r="S300" s="1" t="n"/>
       <c r="T300" s="1" t="n"/>
@@ -23531,13 +23531,13 @@
         <v>1</v>
       </c>
       <c r="P305" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q305" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R305" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S305" s="1" t="n"/>
       <c r="T305" s="1" t="n"/>
@@ -23576,13 +23576,13 @@
         <v>2</v>
       </c>
       <c r="P306" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q306" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R306" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S306" s="1" t="n"/>
       <c r="T306" s="1" t="n"/>
@@ -23621,13 +23621,13 @@
         <v>3</v>
       </c>
       <c r="P307" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q307" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R307" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S307" s="1" t="n"/>
       <c r="T307" s="1" t="n"/>
@@ -23666,13 +23666,13 @@
         <v>4</v>
       </c>
       <c r="P308" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q308" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R308" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S308" s="1" t="n"/>
       <c r="T308" s="1" t="n"/>
@@ -23785,13 +23785,13 @@
         <v>1</v>
       </c>
       <c r="P311" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q311" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R311" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S311" s="1" t="n"/>
       <c r="T311" s="1" t="n"/>
@@ -23830,13 +23830,13 @@
         <v>2</v>
       </c>
       <c r="P312" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q312" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R312" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S312" s="1" t="n"/>
       <c r="T312" s="1" t="n"/>
@@ -23875,13 +23875,13 @@
         <v>3</v>
       </c>
       <c r="P313" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q313" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R313" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S313" s="1" t="n"/>
       <c r="T313" s="1" t="n"/>
@@ -23920,13 +23920,13 @@
         <v>4</v>
       </c>
       <c r="P314" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q314" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R314" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S314" s="1" t="n"/>
       <c r="T314" s="1" t="n"/>
@@ -24039,13 +24039,13 @@
         <v>1</v>
       </c>
       <c r="P317" s="1" t="n">
-        <v>27.5</v>
+        <v>27.46</v>
       </c>
       <c r="Q317" s="1" t="n">
         <v>27.34</v>
       </c>
       <c r="R317" s="1" t="n">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="S317" s="1" t="n"/>
       <c r="T317" s="1" t="n"/>
@@ -24084,13 +24084,13 @@
         <v>2</v>
       </c>
       <c r="P318" s="1" t="n">
-        <v>16.5</v>
+        <v>16.46</v>
       </c>
       <c r="Q318" s="1" t="n">
         <v>17.46</v>
       </c>
       <c r="R318" s="1" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="S318" s="1" t="n"/>
       <c r="T318" s="1" t="n"/>
@@ -24129,13 +24129,13 @@
         <v>3</v>
       </c>
       <c r="P319" s="1" t="n">
-        <v>5.5</v>
+        <v>5.46</v>
       </c>
       <c r="Q319" s="1" t="n">
         <v>7.58</v>
       </c>
       <c r="R319" s="1" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S319" s="1" t="n"/>
       <c r="T319" s="1" t="n"/>
@@ -24174,13 +24174,13 @@
         <v>4</v>
       </c>
       <c r="P320" s="1" t="n">
-        <v>-5.5</v>
+        <v>-5.54</v>
       </c>
       <c r="Q320" s="1" t="n">
         <v>-7.66</v>
       </c>
       <c r="R320" s="1" t="n">
-        <v>-2.16</v>
+        <v>-2.12</v>
       </c>
       <c r="S320" s="1" t="n"/>
       <c r="T320" s="1" t="n"/>
@@ -24211,13 +24211,13 @@
         <v>5</v>
       </c>
       <c r="P321" s="1" t="n">
-        <v>-16.5</v>
+        <v>-16.54</v>
       </c>
       <c r="Q321" s="1" t="n">
         <v>-17.54</v>
       </c>
       <c r="R321" s="1" t="n">
-        <v>-1.04</v>
+        <v>-1</v>
       </c>
       <c r="S321" s="1" t="n"/>
       <c r="T321" s="1" t="n"/>
@@ -24248,13 +24248,13 @@
         <v>6</v>
       </c>
       <c r="P322" s="1" t="n">
-        <v>-27.5</v>
+        <v>-27.54</v>
       </c>
       <c r="Q322" s="1" t="n">
         <v>-27.42</v>
       </c>
       <c r="R322" s="1" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="S322" s="1" t="n"/>
       <c r="T322" s="1" t="n"/>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="G325" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H325" s="1" t="n">
         <v>17</v>
@@ -24367,13 +24367,13 @@
         <v>1</v>
       </c>
       <c r="P325" s="1" t="n">
-        <v>25.5</v>
+        <v>25.46</v>
       </c>
       <c r="Q325" s="1" t="n">
         <v>32.91</v>
       </c>
       <c r="R325" s="1" t="n">
-        <v>7.41</v>
+        <v>7.45</v>
       </c>
       <c r="S325" s="1" t="n"/>
       <c r="T325" s="1" t="n"/>
@@ -24412,13 +24412,13 @@
         <v>2</v>
       </c>
       <c r="P326" s="1" t="n">
-        <v>8.5</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q326" s="1" t="n">
         <v>2.01</v>
       </c>
       <c r="R326" s="1" t="n">
-        <v>-6.49</v>
+        <v>-6.45</v>
       </c>
       <c r="S326" s="1" t="n"/>
       <c r="T326" s="1" t="n"/>
@@ -24449,13 +24449,13 @@
         <v>3</v>
       </c>
       <c r="P327" s="1" t="n">
-        <v>-8.5</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="Q327" s="1" t="n">
         <v>-2.09</v>
       </c>
       <c r="R327" s="1" t="n">
-        <v>6.41</v>
+        <v>6.45</v>
       </c>
       <c r="S327" s="1" t="n"/>
       <c r="T327" s="1" t="n"/>
@@ -24486,13 +24486,13 @@
         <v>4</v>
       </c>
       <c r="P328" s="1" t="n">
-        <v>-25.5</v>
+        <v>-25.54</v>
       </c>
       <c r="Q328" s="1" t="n">
         <v>-32.99</v>
       </c>
       <c r="R328" s="1" t="n">
-        <v>-7.49</v>
+        <v>-7.45</v>
       </c>
       <c r="S328" s="1" t="n"/>
       <c r="T328" s="1" t="n"/>
@@ -24605,13 +24605,13 @@
         <v>1</v>
       </c>
       <c r="P331" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q331" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R331" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S331" s="1" t="n"/>
       <c r="T331" s="1" t="n"/>
@@ -24650,13 +24650,13 @@
         <v>2</v>
       </c>
       <c r="P332" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q332" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R332" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S332" s="1" t="n"/>
       <c r="T332" s="1" t="n"/>
@@ -24695,13 +24695,13 @@
         <v>3</v>
       </c>
       <c r="P333" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q333" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R333" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S333" s="1" t="n"/>
       <c r="T333" s="1" t="n"/>
@@ -24740,13 +24740,13 @@
         <v>4</v>
       </c>
       <c r="P334" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q334" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R334" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S334" s="1" t="n"/>
       <c r="T334" s="1" t="n"/>
@@ -24859,13 +24859,13 @@
         <v>1</v>
       </c>
       <c r="P337" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q337" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R337" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S337" s="1" t="n"/>
       <c r="T337" s="1" t="n"/>
@@ -24904,13 +24904,13 @@
         <v>2</v>
       </c>
       <c r="P338" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q338" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R338" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S338" s="1" t="n"/>
       <c r="T338" s="1" t="n"/>
@@ -24949,13 +24949,13 @@
         <v>3</v>
       </c>
       <c r="P339" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q339" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R339" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S339" s="1" t="n"/>
       <c r="T339" s="1" t="n"/>
@@ -24994,13 +24994,13 @@
         <v>4</v>
       </c>
       <c r="P340" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q340" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R340" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S340" s="1" t="n"/>
       <c r="T340" s="1" t="n"/>
@@ -25113,13 +25113,13 @@
         <v>1</v>
       </c>
       <c r="P343" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q343" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R343" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S343" s="1" t="n"/>
       <c r="T343" s="1" t="n"/>
@@ -25158,13 +25158,13 @@
         <v>2</v>
       </c>
       <c r="P344" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q344" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R344" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S344" s="1" t="n"/>
       <c r="T344" s="1" t="n"/>
@@ -25203,13 +25203,13 @@
         <v>3</v>
       </c>
       <c r="P345" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q345" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R345" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S345" s="1" t="n"/>
       <c r="T345" s="1" t="n"/>
@@ -25248,13 +25248,13 @@
         <v>4</v>
       </c>
       <c r="P346" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q346" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R346" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S346" s="1" t="n"/>
       <c r="T346" s="1" t="n"/>
@@ -25367,13 +25367,13 @@
         <v>1</v>
       </c>
       <c r="P349" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q349" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R349" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S349" s="1" t="n"/>
       <c r="T349" s="1" t="n"/>
@@ -25412,13 +25412,13 @@
         <v>2</v>
       </c>
       <c r="P350" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q350" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R350" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S350" s="1" t="n"/>
       <c r="T350" s="1" t="n"/>
@@ -25457,13 +25457,13 @@
         <v>3</v>
       </c>
       <c r="P351" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q351" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R351" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S351" s="1" t="n"/>
       <c r="T351" s="1" t="n"/>
@@ -25502,13 +25502,13 @@
         <v>4</v>
       </c>
       <c r="P352" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q352" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R352" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S352" s="1" t="n"/>
       <c r="T352" s="1" t="n"/>
@@ -25621,13 +25621,13 @@
         <v>1</v>
       </c>
       <c r="P355" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q355" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R355" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S355" s="1" t="n"/>
       <c r="T355" s="1" t="n"/>
@@ -25666,13 +25666,13 @@
         <v>2</v>
       </c>
       <c r="P356" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q356" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R356" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S356" s="1" t="n"/>
       <c r="T356" s="1" t="n"/>
@@ -25711,13 +25711,13 @@
         <v>3</v>
       </c>
       <c r="P357" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q357" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R357" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S357" s="1" t="n"/>
       <c r="T357" s="1" t="n"/>
@@ -25756,13 +25756,13 @@
         <v>4</v>
       </c>
       <c r="P358" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q358" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R358" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S358" s="1" t="n"/>
       <c r="T358" s="1" t="n"/>
@@ -25875,13 +25875,13 @@
         <v>1</v>
       </c>
       <c r="P361" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q361" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R361" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S361" s="1" t="n"/>
       <c r="T361" s="1" t="n"/>
@@ -25920,13 +25920,13 @@
         <v>2</v>
       </c>
       <c r="P362" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q362" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R362" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S362" s="1" t="n"/>
       <c r="T362" s="1" t="n"/>
@@ -25965,13 +25965,13 @@
         <v>3</v>
       </c>
       <c r="P363" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q363" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R363" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S363" s="1" t="n"/>
       <c r="T363" s="1" t="n"/>
@@ -26010,13 +26010,13 @@
         <v>4</v>
       </c>
       <c r="P364" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q364" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R364" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S364" s="1" t="n"/>
       <c r="T364" s="1" t="n"/>
@@ -26106,7 +26106,7 @@
         <v>0</v>
       </c>
       <c r="G367" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H367" s="1" t="n">
         <v>17</v>
@@ -26344,7 +26344,7 @@
         <v>0</v>
       </c>
       <c r="G373" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H373" s="1" t="n">
         <v>17</v>
@@ -26585,7 +26585,7 @@
         <v>17</v>
       </c>
       <c r="H379" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I379" s="1" t="n"/>
       <c r="J379" s="1" t="n">
@@ -26843,13 +26843,13 @@
         <v>1</v>
       </c>
       <c r="P385" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q385" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R385" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S385" s="1" t="n"/>
       <c r="T385" s="1" t="n"/>
@@ -26888,13 +26888,13 @@
         <v>2</v>
       </c>
       <c r="P386" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q386" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R386" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S386" s="1" t="n"/>
       <c r="T386" s="1" t="n"/>
@@ -26933,13 +26933,13 @@
         <v>3</v>
       </c>
       <c r="P387" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q387" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R387" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S387" s="1" t="n"/>
       <c r="T387" s="1" t="n"/>
@@ -26978,13 +26978,13 @@
         <v>4</v>
       </c>
       <c r="P388" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q388" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R388" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S388" s="1" t="n"/>
       <c r="T388" s="1" t="n"/>
@@ -27097,13 +27097,13 @@
         <v>1</v>
       </c>
       <c r="P391" s="1" t="n">
-        <v>25.5</v>
+        <v>26.305</v>
       </c>
       <c r="Q391" s="1" t="n">
         <v>23.245</v>
       </c>
       <c r="R391" s="1" t="n">
-        <v>-2.255</v>
+        <v>-3.06</v>
       </c>
       <c r="S391" s="1" t="n"/>
       <c r="T391" s="1" t="n"/>
@@ -27142,13 +27142,13 @@
         <v>2</v>
       </c>
       <c r="P392" s="1" t="n">
-        <v>8.5</v>
+        <v>9.305</v>
       </c>
       <c r="Q392" s="1" t="n">
         <v>13.365</v>
       </c>
       <c r="R392" s="1" t="n">
-        <v>4.865</v>
+        <v>4.06</v>
       </c>
       <c r="S392" s="1" t="n"/>
       <c r="T392" s="1" t="n"/>
@@ -27187,13 +27187,13 @@
         <v>3</v>
       </c>
       <c r="P393" s="1" t="n">
-        <v>-8.5</v>
+        <v>-7.695</v>
       </c>
       <c r="Q393" s="1" t="n">
         <v>-11.755</v>
       </c>
       <c r="R393" s="1" t="n">
-        <v>-3.255</v>
+        <v>-4.06</v>
       </c>
       <c r="S393" s="1" t="n"/>
       <c r="T393" s="1" t="n"/>
@@ -27232,13 +27232,13 @@
         <v>4</v>
       </c>
       <c r="P394" s="1" t="n">
-        <v>-25.5</v>
+        <v>-24.695</v>
       </c>
       <c r="Q394" s="1" t="n">
         <v>-21.635</v>
       </c>
       <c r="R394" s="1" t="n">
-        <v>3.865</v>
+        <v>3.06</v>
       </c>
       <c r="S394" s="1" t="n"/>
       <c r="T394" s="1" t="n"/>
